--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44109</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44173</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43669</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44722</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>45073</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44820</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44958</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45073</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43328</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43329</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43332</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43335</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43348</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43360</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43404</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43405</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43433</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43453</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43454</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43467</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43514</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43516</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43517</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43531</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43606</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43608</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43614</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43626</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43633</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43642</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43644</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43650</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>43651</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>43654</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43657</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43673</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43683</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43684</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43696</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43714</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>43721</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43735</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43738</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43760</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43788</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43791</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43792</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43793</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43811</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43817</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43819</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43935</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43936</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43966</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43971</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43976</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43980</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43991</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44029</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44060</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44061</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44062</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44088</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44090</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>44092</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44095</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>44098</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>44113</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44116</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44126</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44133</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44138</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44140</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44147</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44151</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44162</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44172</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44186</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44238</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44244</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44245</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44246</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44344</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44355</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44358</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44362</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44369</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44370</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44375</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44378</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44382</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44391</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44393</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44404</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>44417</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>44425</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44431</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44433</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>44437</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44442</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>44454</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44462</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44474</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44477</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>44490</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44491</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26352,7 +26352,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44109</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44173</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43669</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44722</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>45073</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44820</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44958</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45073</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43328</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43329</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43332</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43335</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43348</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43360</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43404</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43405</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43433</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43453</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43454</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43467</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43514</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43516</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43517</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43531</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43606</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43608</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43614</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43626</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43633</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43642</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43644</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43650</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>43651</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>43654</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43657</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43673</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43683</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43684</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43696</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43714</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>43721</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43735</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43738</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43760</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43788</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43791</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43792</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43793</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43811</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43817</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43819</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43935</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43936</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43966</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43971</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43976</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43980</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43991</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44029</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44060</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44061</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44062</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44088</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44090</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>44092</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44095</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>44098</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>44113</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44116</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44126</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44133</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44138</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44140</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44147</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44151</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44162</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44172</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44186</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44238</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44244</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44245</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44246</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44344</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44355</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44358</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44362</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44369</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44370</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44375</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44378</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44382</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44391</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44393</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44404</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>44417</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>44425</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44431</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44433</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>44437</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44442</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>44454</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44462</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44474</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44477</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>44490</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44491</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26352,7 +26352,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44109</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44173</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43669</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44722</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>45073</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44820</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44958</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45073</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43328</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43329</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43332</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43335</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43348</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43360</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43404</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43405</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43433</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43453</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43454</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43467</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43514</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43516</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43517</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43531</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43606</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43608</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43614</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43626</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43633</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43642</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43644</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43650</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>43651</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>43654</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43657</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43673</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43683</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43684</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43696</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43714</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>43721</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43735</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43738</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43760</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43788</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43791</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43792</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43793</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43811</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43817</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43819</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43935</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43936</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43966</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43971</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43976</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43980</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43991</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44029</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44060</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44061</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44062</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44088</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44090</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>44092</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44095</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>44098</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>44113</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44116</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44126</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44133</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44138</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44140</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44147</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44151</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44162</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44172</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44186</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44238</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44244</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44245</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44246</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44344</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44355</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44358</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44362</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44369</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44370</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44375</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44378</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44382</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44391</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44393</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44404</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>44417</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>44425</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44431</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44433</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>44437</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44442</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>44454</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44462</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44474</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44477</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>44490</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44491</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26352,7 +26352,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44109</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44173</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43669</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44722</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>45073</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44820</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44958</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45073</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43328</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43329</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43332</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43335</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43348</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43360</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43404</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43405</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43433</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43453</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43454</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43467</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43514</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43516</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43517</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43531</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43606</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43608</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43614</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43626</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43633</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43642</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43644</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43650</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>43651</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>43654</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43657</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43673</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43683</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43684</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43696</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43714</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>43721</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43735</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43738</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43760</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43788</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43791</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43792</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43793</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43811</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43817</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43819</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43935</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43936</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43966</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43971</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43976</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43980</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43991</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44029</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44060</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44061</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44062</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44088</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44090</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>44092</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44095</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>44098</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>44113</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44116</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44126</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44133</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44138</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44140</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44147</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44151</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44162</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44172</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44186</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44238</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44244</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44245</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44246</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44344</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44355</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44358</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44362</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44369</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44370</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44375</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44378</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44382</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44391</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44393</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44404</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>44417</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>44425</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44431</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44433</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>44437</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44442</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>44454</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44462</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44474</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44477</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>44490</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44491</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26352,7 +26352,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44109</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44173</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43669</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44722</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>45073</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44820</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44958</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45073</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43328</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43329</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43332</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43335</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43348</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43360</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43404</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43405</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43433</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43453</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43454</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43467</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43514</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43516</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43517</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43531</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43606</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43608</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43614</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43626</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43633</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43642</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43644</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43650</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>43651</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>43654</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43657</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43673</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43683</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43684</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43696</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43714</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>43721</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43735</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43738</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43760</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43788</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43791</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43792</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43793</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43811</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43817</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43819</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43935</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43936</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43966</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43971</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43976</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43980</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43991</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44029</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44060</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44061</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44062</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44088</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44090</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>44092</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44095</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>44098</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>44113</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44116</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44126</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44133</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44138</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44140</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44147</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44151</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44162</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44172</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44186</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44238</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44244</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44245</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44246</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44344</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44355</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44358</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44362</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44369</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44370</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44375</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44378</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44382</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44391</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44393</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44404</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>44417</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>44425</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44431</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44433</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>44437</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44442</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>44454</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44462</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44474</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44477</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>44490</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44491</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26352,7 +26352,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44109</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44173</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43669</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44722</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>45073</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44820</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44958</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45073</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43328</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43329</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43332</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43335</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43348</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43360</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43404</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43405</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43433</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43453</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43454</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43467</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43514</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43516</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43517</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43531</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43606</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43608</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43614</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43626</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43633</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43642</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43644</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43650</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>43651</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>43654</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43657</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43673</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43683</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43684</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43696</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43714</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>43721</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43735</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43738</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43760</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43788</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43791</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43792</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43793</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43811</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43817</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43819</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43935</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43936</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43966</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43971</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43976</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43980</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43991</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44029</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44060</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44061</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44062</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44088</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44090</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>44092</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44095</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>44098</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>44113</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44116</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44126</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44133</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44138</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44140</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44147</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44151</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44162</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44172</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44186</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44238</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44244</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44245</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44246</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44344</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44355</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44358</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44362</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44369</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44370</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44375</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44378</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44382</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44391</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44393</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44404</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>44417</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>44425</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44431</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44433</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>44437</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44442</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>44454</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44462</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44474</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44477</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>44490</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44491</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26352,7 +26352,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44109</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44173</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43669</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44722</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>45073</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44820</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44958</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45073</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43328</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43329</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43332</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43335</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43348</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43360</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43404</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43405</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43433</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43453</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43454</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43467</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43514</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43516</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43517</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43531</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43606</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43608</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43614</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43626</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43633</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43642</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43644</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43650</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>43651</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>43654</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43657</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43673</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43683</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43684</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43696</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43714</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>43721</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43735</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43738</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43760</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43788</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43791</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43792</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43793</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43811</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43817</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43819</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43935</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43936</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43966</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43971</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43976</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43980</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43991</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44029</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44060</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44061</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44062</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44088</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44090</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>44092</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44095</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>44098</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>44113</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44116</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44126</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44133</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44138</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44140</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44147</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44151</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44162</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44172</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44186</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44238</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44244</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44245</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44246</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44344</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44355</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44358</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44362</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44369</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44370</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44375</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44378</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44382</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44391</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44393</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44404</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>44417</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>44425</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44431</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44433</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>44437</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44442</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>44454</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44462</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44474</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44477</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>44490</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44491</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26352,7 +26352,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44109</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44173</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43669</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44722</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>45073</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44820</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44958</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45073</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43328</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43329</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43332</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43335</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43348</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43360</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43404</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43405</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43433</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43453</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43454</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43467</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43514</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43516</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43517</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43531</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43606</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43608</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43614</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43626</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43633</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43642</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43644</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43650</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>43651</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>43654</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43657</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43673</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43683</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43684</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43696</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43714</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>43721</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43735</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43738</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43760</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43788</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43791</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43792</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43793</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43811</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43817</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43819</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43935</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43936</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43966</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43971</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43976</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43980</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43991</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44029</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44060</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44061</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44062</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44088</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44090</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>44092</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44095</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>44098</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>44113</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44116</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44126</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44133</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44138</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44140</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44147</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44151</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44162</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44172</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44186</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44238</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44244</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44245</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44246</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44344</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44355</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44358</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44362</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44369</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44370</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44375</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44378</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44382</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44391</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44393</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44404</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>44417</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>44425</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44431</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44433</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>44437</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44442</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>44454</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44462</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44474</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44477</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>44490</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44491</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26352,7 +26352,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44109</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44173</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43669</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44722</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>45073</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44820</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44958</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45073</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43328</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43329</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43332</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43335</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43348</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43360</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43404</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43405</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43433</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43453</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43454</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43467</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43514</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43516</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43517</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43531</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43606</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43608</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43614</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43626</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43633</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43642</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43644</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43650</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>43651</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>43654</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43657</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43673</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43683</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43684</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43696</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43714</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>43721</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43735</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43738</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43760</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43788</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43791</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43792</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43793</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43811</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43817</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43819</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43935</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43936</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43966</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43971</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43976</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43980</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43991</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44029</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44060</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44061</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44062</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44088</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44090</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>44092</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44095</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>44098</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>44113</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44116</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44126</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44133</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44138</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44140</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44147</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44151</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44162</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44172</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44186</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44238</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44244</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44245</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44246</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44344</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44355</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44358</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44362</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44369</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44370</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44375</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44378</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44382</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44391</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44393</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44404</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>44417</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>44425</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44431</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44433</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>44437</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44442</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>44454</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44462</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44474</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44477</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>44490</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44491</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26352,7 +26352,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -663,27 +663,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 55345-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 55345-2020.xlsx", "A 55345-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 55345-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 55345-2020.png", "A 55345-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 55345-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 55345-2020.docx", "A 55345-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 55345-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 55345-2020.docx", "A 55345-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 55345-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 55345-2020.docx", "A 55345-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 55345-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 55345-2020.docx", "A 55345-2020")</f>
         <v/>
       </c>
     </row>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,27 +782,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 32759-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 32759-2021.xlsx", "A 32759-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 32759-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 32759-2021.png", "A 32759-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 32759-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 32759-2021.docx", "A 32759-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 32759-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 32759-2021.docx", "A 32759-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 32759-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 32759-2021.docx", "A 32759-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 32759-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 32759-2021.docx", "A 32759-2021")</f>
         <v/>
       </c>
     </row>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -900,27 +900,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 59896-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 59896-2019.xlsx", "A 59896-2019")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 59896-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 59896-2019.png", "A 59896-2019")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 59896-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 59896-2019.docx", "A 59896-2019")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 59896-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 59896-2019.docx", "A 59896-2019")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 59896-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 59896-2019.docx", "A 59896-2019")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 59896-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 59896-2019.docx", "A 59896-2019")</f>
         <v/>
       </c>
     </row>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1008,31 +1008,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 62534-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 62534-2022.xlsx", "A 62534-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 62534-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 62534-2022.png", "A 62534-2022")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/knärot/A 62534-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/knärot/A 62534-2022.png", "A 62534-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 62534-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 62534-2022.docx", "A 62534-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 62534-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 62534-2022.docx", "A 62534-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 62534-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 62534-2022.docx", "A 62534-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 62534-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 62534-2022.docx", "A 62534-2022")</f>
         <v/>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1123,27 +1123,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 65332-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 65332-2020.xlsx", "A 65332-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 65332-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 65332-2020.png", "A 65332-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 65332-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 65332-2020.docx", "A 65332-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 65332-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 65332-2020.docx", "A 65332-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 65332-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 65332-2020.docx", "A 65332-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 65332-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 65332-2020.docx", "A 65332-2020")</f>
         <v/>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1233,27 +1233,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 48363-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 48363-2020.xlsx", "A 48363-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 48363-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 48363-2020.png", "A 48363-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 48363-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 48363-2020.docx", "A 48363-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 48363-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 48363-2020.docx", "A 48363-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 48363-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 48363-2020.docx", "A 48363-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 48363-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 48363-2020.docx", "A 48363-2020")</f>
         <v/>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1340,27 +1340,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 64915-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 64915-2019.xlsx", "A 64915-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 64915-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 64915-2019.png", "A 64915-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 64915-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 64915-2019.docx", "A 64915-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 64915-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 64915-2019.docx", "A 64915-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 64915-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 64915-2019.docx", "A 64915-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 64915-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 64915-2019.docx", "A 64915-2019")</f>
         <v/>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1441,27 +1441,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 20245-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 20245-2019.xlsx", "A 20245-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 20245-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 20245-2019.png", "A 20245-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 20245-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 20245-2019.docx", "A 20245-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 20245-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 20245-2019.docx", "A 20245-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 20245-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 20245-2019.docx", "A 20245-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 20245-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 20245-2019.docx", "A 20245-2019")</f>
         <v/>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1547,27 +1547,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 32121-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 32121-2021.xlsx", "A 32121-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 32121-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 32121-2021.png", "A 32121-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 32121-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 32121-2021.docx", "A 32121-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 32121-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 32121-2021.docx", "A 32121-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 32121-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 32121-2021.docx", "A 32121-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 32121-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 32121-2021.docx", "A 32121-2021")</f>
         <v/>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1648,27 +1648,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 32322-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 32322-2022.xlsx", "A 32322-2022")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 32322-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 32322-2022.png", "A 32322-2022")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 32322-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 32322-2022.docx", "A 32322-2022")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 32322-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 32322-2022.docx", "A 32322-2022")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 32322-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 32322-2022.docx", "A 32322-2022")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 32322-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 32322-2022.docx", "A 32322-2022")</f>
         <v/>
       </c>
     </row>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1749,27 +1749,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 20487-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 20487-2023.xlsx", "A 20487-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 20487-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 20487-2023.png", "A 20487-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 20487-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 20487-2023.docx", "A 20487-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 20487-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 20487-2023.docx", "A 20487-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 20487-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 20487-2023.docx", "A 20487-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 20487-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 20487-2023.docx", "A 20487-2023")</f>
         <v/>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1849,27 +1849,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 20585-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 20585-2023.xlsx", "A 20585-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 20585-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 20585-2023.png", "A 20585-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 20585-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 20585-2023.docx", "A 20585-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 20585-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 20585-2023.docx", "A 20585-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 20585-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 20585-2023.docx", "A 20585-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 20585-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 20585-2023.docx", "A 20585-2023")</f>
         <v/>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1951,27 +1951,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 25131-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 25131-2020.xlsx", "A 25131-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 25131-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 25131-2020.png", "A 25131-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 25131-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 25131-2020.docx", "A 25131-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 25131-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 25131-2020.docx", "A 25131-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 25131-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 25131-2020.docx", "A 25131-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 25131-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 25131-2020.docx", "A 25131-2020")</f>
         <v/>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2053,27 +2053,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 24072-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 24072-2022.xlsx", "A 24072-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 24072-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 24072-2022.png", "A 24072-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 24072-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 24072-2022.docx", "A 24072-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 24072-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 24072-2022.docx", "A 24072-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 24072-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 24072-2022.docx", "A 24072-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 24072-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 24072-2022.docx", "A 24072-2022")</f>
         <v/>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2154,27 +2154,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 65339-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 65339-2020.xlsx", "A 65339-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 65339-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 65339-2020.png", "A 65339-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 65339-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 65339-2020.docx", "A 65339-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 65339-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 65339-2020.docx", "A 65339-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 65339-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 65339-2020.docx", "A 65339-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 65339-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 65339-2020.docx", "A 65339-2020")</f>
         <v/>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2249,27 +2249,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 19776-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 19776-2019.xlsx", "A 19776-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 19776-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 19776-2019.png", "A 19776-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 19776-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 19776-2019.docx", "A 19776-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 19776-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 19776-2019.docx", "A 19776-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 19776-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 19776-2019.docx", "A 19776-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 19776-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 19776-2019.docx", "A 19776-2019")</f>
         <v/>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2349,27 +2349,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 28162-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 28162-2020.xlsx", "A 28162-2020")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 28162-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 28162-2020.png", "A 28162-2020")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 28162-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 28162-2020.docx", "A 28162-2020")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 28162-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 28162-2020.docx", "A 28162-2020")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 28162-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 28162-2020.docx", "A 28162-2020")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 28162-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 28162-2020.docx", "A 28162-2020")</f>
         <v/>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2449,27 +2449,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 32616-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 32616-2022.xlsx", "A 32616-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 32616-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 32616-2022.png", "A 32616-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 32616-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 32616-2022.docx", "A 32616-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 32616-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 32616-2022.docx", "A 32616-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 32616-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 32616-2022.docx", "A 32616-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 32616-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 32616-2022.docx", "A 32616-2022")</f>
         <v/>
       </c>
     </row>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2547,27 +2547,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 58473-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 58473-2020.xlsx", "A 58473-2020")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 58473-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 58473-2020.png", "A 58473-2020")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 58473-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 58473-2020.docx", "A 58473-2020")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 58473-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 58473-2020.docx", "A 58473-2020")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 58473-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 58473-2020.docx", "A 58473-2020")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 58473-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 58473-2020.docx", "A 58473-2020")</f>
         <v/>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2645,27 +2645,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 4896-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 4896-2021.xlsx", "A 4896-2021")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 4896-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 4896-2021.png", "A 4896-2021")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 4896-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 4896-2021.docx", "A 4896-2021")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 4896-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 4896-2021.docx", "A 4896-2021")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 4896-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 4896-2021.docx", "A 4896-2021")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 4896-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 4896-2021.docx", "A 4896-2021")</f>
         <v/>
       </c>
     </row>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2738,27 +2738,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 73873-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 73873-2021.xlsx", "A 73873-2021")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 73873-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 73873-2021.png", "A 73873-2021")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 73873-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 73873-2021.docx", "A 73873-2021")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 73873-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 73873-2021.docx", "A 73873-2021")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 73873-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 73873-2021.docx", "A 73873-2021")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 73873-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 73873-2021.docx", "A 73873-2021")</f>
         <v/>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2831,31 +2831,31 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 20583-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 20583-2023.xlsx", "A 20583-2023")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 20583-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 20583-2023.png", "A 20583-2023")</f>
         <v/>
       </c>
       <c r="U23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/knärot/A 20583-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/knärot/A 20583-2023.png", "A 20583-2023")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 20583-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 20583-2023.docx", "A 20583-2023")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 20583-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 20583-2023.docx", "A 20583-2023")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 20583-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 20583-2023.docx", "A 20583-2023")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 20583-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 20583-2023.docx", "A 20583-2023")</f>
         <v/>
       </c>
     </row>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2932,27 +2932,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 42793-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 42793-2020.xlsx", "A 42793-2020")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 42793-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 42793-2020.png", "A 42793-2020")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 42793-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 42793-2020.docx", "A 42793-2020")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 42793-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 42793-2020.docx", "A 42793-2020")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 42793-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 42793-2020.docx", "A 42793-2020")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 42793-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 42793-2020.docx", "A 42793-2020")</f>
         <v/>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
         <v>44109</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3028,27 +3028,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 51520-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 51520-2020.xlsx", "A 51520-2020")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 51520-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 51520-2020.png", "A 51520-2020")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 51520-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 51520-2020.docx", "A 51520-2020")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 51520-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 51520-2020.docx", "A 51520-2020")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 51520-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 51520-2020.docx", "A 51520-2020")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 51520-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 51520-2020.docx", "A 51520-2020")</f>
         <v/>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
         <v>44173</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3124,27 +3124,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 65342-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 65342-2020.xlsx", "A 65342-2020")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 65342-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 65342-2020.png", "A 65342-2020")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 65342-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 65342-2020.docx", "A 65342-2020")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 65342-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 65342-2020.docx", "A 65342-2020")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 65342-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 65342-2020.docx", "A 65342-2020")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 65342-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 65342-2020.docx", "A 65342-2020")</f>
         <v/>
       </c>
     </row>
@@ -3158,7 +3158,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3219,27 +3219,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 59029-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 59029-2018.xlsx", "A 59029-2018")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 59029-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 59029-2018.png", "A 59029-2018")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 59029-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 59029-2018.docx", "A 59029-2018")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 59029-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 59029-2018.docx", "A 59029-2018")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 59029-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 59029-2018.docx", "A 59029-2018")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 59029-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 59029-2018.docx", "A 59029-2018")</f>
         <v/>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
         <v>43669</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3314,27 +3314,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 36552-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 36552-2019.xlsx", "A 36552-2019")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 36552-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 36552-2019.png", "A 36552-2019")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 36552-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 36552-2019.docx", "A 36552-2019")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 36552-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 36552-2019.docx", "A 36552-2019")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 36552-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 36552-2019.docx", "A 36552-2019")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 36552-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 36552-2019.docx", "A 36552-2019")</f>
         <v/>
       </c>
     </row>
@@ -3348,7 +3348,7 @@
         <v>44033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3404,27 +3404,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 34560-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 34560-2020.xlsx", "A 34560-2020")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 34560-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 34560-2020.png", "A 34560-2020")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 34560-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 34560-2020.docx", "A 34560-2020")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 34560-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 34560-2020.docx", "A 34560-2020")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 34560-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 34560-2020.docx", "A 34560-2020")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 34560-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 34560-2020.docx", "A 34560-2020")</f>
         <v/>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
         <v>44722</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3499,27 +3499,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 24068-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 24068-2022.xlsx", "A 24068-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 24068-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 24068-2022.png", "A 24068-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 24068-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 24068-2022.docx", "A 24068-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 24068-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 24068-2022.docx", "A 24068-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 24068-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 24068-2022.docx", "A 24068-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 24068-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 24068-2022.docx", "A 24068-2022")</f>
         <v/>
       </c>
     </row>
@@ -3533,7 +3533,7 @@
         <v>45073</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3594,27 +3594,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 23018-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 23018-2023.xlsx", "A 23018-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 23018-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 23018-2023.png", "A 23018-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 23018-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 23018-2023.docx", "A 23018-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 23018-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 23018-2023.docx", "A 23018-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 23018-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 23018-2023.docx", "A 23018-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 23018-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 23018-2023.docx", "A 23018-2023")</f>
         <v/>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3688,27 +3688,27 @@
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 68299-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 68299-2019.xlsx", "A 68299-2019")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 68299-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 68299-2019.png", "A 68299-2019")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 68299-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 68299-2019.docx", "A 68299-2019")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 68299-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 68299-2019.docx", "A 68299-2019")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 68299-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 68299-2019.docx", "A 68299-2019")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 68299-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 68299-2019.docx", "A 68299-2019")</f>
         <v/>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3782,27 +3782,27 @@
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 59451-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 59451-2021.xlsx", "A 59451-2021")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 59451-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 59451-2021.png", "A 59451-2021")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 59451-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 59451-2021.docx", "A 59451-2021")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 59451-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 59451-2021.docx", "A 59451-2021")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 59451-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 59451-2021.docx", "A 59451-2021")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 59451-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 59451-2021.docx", "A 59451-2021")</f>
         <v/>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3876,27 +3876,27 @@
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 30582-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 30582-2022.xlsx", "A 30582-2022")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 30582-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 30582-2022.png", "A 30582-2022")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 30582-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 30582-2022.docx", "A 30582-2022")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 30582-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 30582-2022.docx", "A 30582-2022")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 30582-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 30582-2022.docx", "A 30582-2022")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 30582-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 30582-2022.docx", "A 30582-2022")</f>
         <v/>
       </c>
     </row>
@@ -3910,7 +3910,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3969,27 +3969,27 @@
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 54960-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 54960-2021.xlsx", "A 54960-2021")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 54960-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 54960-2021.png", "A 54960-2021")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 54960-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 54960-2021.docx", "A 54960-2021")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 54960-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 54960-2021.docx", "A 54960-2021")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 54960-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 54960-2021.docx", "A 54960-2021")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 54960-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 54960-2021.docx", "A 54960-2021")</f>
         <v/>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4061,27 +4061,27 @@
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 25619-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 25619-2019.xlsx", "A 25619-2019")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 25619-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 25619-2019.png", "A 25619-2019")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 25619-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 25619-2019.docx", "A 25619-2019")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 25619-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 25619-2019.docx", "A 25619-2019")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 25619-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 25619-2019.docx", "A 25619-2019")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 25619-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 25619-2019.docx", "A 25619-2019")</f>
         <v/>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4153,27 +4153,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 24420-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 24420-2020.xlsx", "A 24420-2020")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 24420-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 24420-2020.png", "A 24420-2020")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 24420-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 24420-2020.docx", "A 24420-2020")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 24420-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 24420-2020.docx", "A 24420-2020")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 24420-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 24420-2020.docx", "A 24420-2020")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 24420-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 24420-2020.docx", "A 24420-2020")</f>
         <v/>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4240,27 +4240,27 @@
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 72477-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 72477-2021.xlsx", "A 72477-2021")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 72477-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 72477-2021.png", "A 72477-2021")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 72477-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 72477-2021.docx", "A 72477-2021")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 72477-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 72477-2021.docx", "A 72477-2021")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 72477-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 72477-2021.docx", "A 72477-2021")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 72477-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 72477-2021.docx", "A 72477-2021")</f>
         <v/>
       </c>
     </row>
@@ -4274,7 +4274,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4332,27 +4332,27 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 32806-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 32806-2022.xlsx", "A 32806-2022")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 32806-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 32806-2022.png", "A 32806-2022")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 32806-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 32806-2022.docx", "A 32806-2022")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 32806-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 32806-2022.docx", "A 32806-2022")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 32806-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 32806-2022.docx", "A 32806-2022")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 32806-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 32806-2022.docx", "A 32806-2022")</f>
         <v/>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4424,27 +4424,27 @@
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 23020-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 23020-2023.xlsx", "A 23020-2023")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 23020-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 23020-2023.png", "A 23020-2023")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 23020-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 23020-2023.docx", "A 23020-2023")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 23020-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 23020-2023.docx", "A 23020-2023")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 23020-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 23020-2023.docx", "A 23020-2023")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 23020-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 23020-2023.docx", "A 23020-2023")</f>
         <v/>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4516,27 +4516,27 @@
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 23017-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 23017-2023.xlsx", "A 23017-2023")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 23017-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 23017-2023.png", "A 23017-2023")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 23017-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 23017-2023.docx", "A 23017-2023")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 23017-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 23017-2023.docx", "A 23017-2023")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 23017-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 23017-2023.docx", "A 23017-2023")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 23017-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 23017-2023.docx", "A 23017-2023")</f>
         <v/>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4608,27 +4608,27 @@
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 24055-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 24055-2023.xlsx", "A 24055-2023")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 24055-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 24055-2023.png", "A 24055-2023")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 24055-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 24055-2023.docx", "A 24055-2023")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 24055-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 24055-2023.docx", "A 24055-2023")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 24055-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 24055-2023.docx", "A 24055-2023")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 24055-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 24055-2023.docx", "A 24055-2023")</f>
         <v/>
       </c>
     </row>
@@ -4642,7 +4642,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4694,27 +4694,27 @@
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 9977-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 9977-2019.xlsx", "A 9977-2019")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 9977-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 9977-2019.png", "A 9977-2019")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 9977-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 9977-2019.docx", "A 9977-2019")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 9977-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 9977-2019.docx", "A 9977-2019")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 9977-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 9977-2019.docx", "A 9977-2019")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 9977-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 9977-2019.docx", "A 9977-2019")</f>
         <v/>
       </c>
     </row>
@@ -4728,7 +4728,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4780,27 +4780,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 11148-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 11148-2019.xlsx", "A 11148-2019")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 11148-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 11148-2019.png", "A 11148-2019")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 11148-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 11148-2019.docx", "A 11148-2019")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 11148-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 11148-2019.docx", "A 11148-2019")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 11148-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 11148-2019.docx", "A 11148-2019")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 11148-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 11148-2019.docx", "A 11148-2019")</f>
         <v/>
       </c>
     </row>
@@ -4814,7 +4814,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4871,27 +4871,27 @@
         </is>
       </c>
       <c r="S45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 24408-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 24408-2022.xlsx", "A 24408-2022")</f>
         <v/>
       </c>
       <c r="T45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 24408-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 24408-2022.png", "A 24408-2022")</f>
         <v/>
       </c>
       <c r="V45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 24408-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 24408-2022.docx", "A 24408-2022")</f>
         <v/>
       </c>
       <c r="W45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 24408-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 24408-2022.docx", "A 24408-2022")</f>
         <v/>
       </c>
       <c r="X45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 24408-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 24408-2022.docx", "A 24408-2022")</f>
         <v/>
       </c>
       <c r="Y45">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 24408-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 24408-2022.docx", "A 24408-2022")</f>
         <v/>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4962,27 +4962,27 @@
         </is>
       </c>
       <c r="S46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 27018-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 27018-2023.xlsx", "A 27018-2023")</f>
         <v/>
       </c>
       <c r="T46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 27018-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 27018-2023.png", "A 27018-2023")</f>
         <v/>
       </c>
       <c r="V46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 27018-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 27018-2023.docx", "A 27018-2023")</f>
         <v/>
       </c>
       <c r="W46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 27018-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 27018-2023.docx", "A 27018-2023")</f>
         <v/>
       </c>
       <c r="X46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 27018-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 27018-2023.docx", "A 27018-2023")</f>
         <v/>
       </c>
       <c r="Y46">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 27018-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 27018-2023.docx", "A 27018-2023")</f>
         <v/>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5052,27 +5052,27 @@
         </is>
       </c>
       <c r="S47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 51875-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 51875-2020.xlsx", "A 51875-2020")</f>
         <v/>
       </c>
       <c r="T47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 51875-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 51875-2020.png", "A 51875-2020")</f>
         <v/>
       </c>
       <c r="V47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 51875-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 51875-2020.docx", "A 51875-2020")</f>
         <v/>
       </c>
       <c r="W47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 51875-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 51875-2020.docx", "A 51875-2020")</f>
         <v/>
       </c>
       <c r="X47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 51875-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 51875-2020.docx", "A 51875-2020")</f>
         <v/>
       </c>
       <c r="Y47">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 51875-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 51875-2020.docx", "A 51875-2020")</f>
         <v/>
       </c>
     </row>
@@ -5086,7 +5086,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5142,27 +5142,27 @@
         </is>
       </c>
       <c r="S48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 36594-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 36594-2021.xlsx", "A 36594-2021")</f>
         <v/>
       </c>
       <c r="T48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 36594-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 36594-2021.png", "A 36594-2021")</f>
         <v/>
       </c>
       <c r="V48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 36594-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 36594-2021.docx", "A 36594-2021")</f>
         <v/>
       </c>
       <c r="W48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 36594-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 36594-2021.docx", "A 36594-2021")</f>
         <v/>
       </c>
       <c r="X48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 36594-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 36594-2021.docx", "A 36594-2021")</f>
         <v/>
       </c>
       <c r="Y48">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 36594-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 36594-2021.docx", "A 36594-2021")</f>
         <v/>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
         <v>44545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5227,27 +5227,27 @@
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 72480-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 72480-2021.xlsx", "A 72480-2021")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 72480-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 72480-2021.png", "A 72480-2021")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 72480-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 72480-2021.docx", "A 72480-2021")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 72480-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 72480-2021.docx", "A 72480-2021")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 72480-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 72480-2021.docx", "A 72480-2021")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 72480-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 72480-2021.docx", "A 72480-2021")</f>
         <v/>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
         <v>44820</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5317,27 +5317,27 @@
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 40121-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 40121-2022.xlsx", "A 40121-2022")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 40121-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 40121-2022.png", "A 40121-2022")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 40121-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 40121-2022.docx", "A 40121-2022")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 40121-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 40121-2022.docx", "A 40121-2022")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 40121-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 40121-2022.docx", "A 40121-2022")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 40121-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 40121-2022.docx", "A 40121-2022")</f>
         <v/>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5407,27 +5407,27 @@
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 50237-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 50237-2022.xlsx", "A 50237-2022")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 50237-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 50237-2022.png", "A 50237-2022")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 50237-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 50237-2022.docx", "A 50237-2022")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 50237-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 50237-2022.docx", "A 50237-2022")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 50237-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 50237-2022.docx", "A 50237-2022")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 50237-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 50237-2022.docx", "A 50237-2022")</f>
         <v/>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
         <v>44958</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5492,27 +5492,27 @@
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 5824-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 5824-2023.xlsx", "A 5824-2023")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 5824-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 5824-2023.png", "A 5824-2023")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 5824-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 5824-2023.docx", "A 5824-2023")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 5824-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 5824-2023.docx", "A 5824-2023")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 5824-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 5824-2023.docx", "A 5824-2023")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 5824-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 5824-2023.docx", "A 5824-2023")</f>
         <v/>
       </c>
     </row>
@@ -5526,7 +5526,7 @@
         <v>45073</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5582,27 +5582,27 @@
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 23026-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 23026-2023.xlsx", "A 23026-2023")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 23026-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 23026-2023.png", "A 23026-2023")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 23026-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 23026-2023.docx", "A 23026-2023")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 23026-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 23026-2023.docx", "A 23026-2023")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 23026-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 23026-2023.docx", "A 23026-2023")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 23026-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 23026-2023.docx", "A 23026-2023")</f>
         <v/>
       </c>
     </row>
@@ -5616,7 +5616,7 @@
         <v>43327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43328</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43329</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43332</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43335</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43348</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43360</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43404</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43405</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43433</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43453</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43454</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43467</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43514</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43516</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43517</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43531</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43606</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43608</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43614</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43626</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43633</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43642</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43644</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43650</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>43651</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>43654</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43657</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43673</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43683</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43684</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43696</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43714</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>43721</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43735</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43738</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43760</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43788</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43791</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43792</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43793</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43811</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43817</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43819</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43935</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43936</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43966</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43971</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43976</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43980</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43991</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44029</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44060</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44061</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44062</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44088</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44090</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>44092</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44095</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>44098</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>44113</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44116</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44126</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44133</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44138</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44140</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44147</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44151</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44162</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44172</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44186</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44238</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44244</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44245</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44246</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44344</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44355</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44358</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44362</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44369</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44370</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44375</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44378</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44382</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44391</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44393</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44404</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>44417</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>44425</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44431</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44433</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>44437</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44442</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>44454</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44462</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44474</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44477</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>44490</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44491</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26352,7 +26352,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44109</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44173</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>43416</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>43669</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>44033</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         <v>44722</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         <v>45073</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3722,7 +3722,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4095,7 +4095,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4550,7 +4550,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4642,7 +4642,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         <v>44545</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5261,7 +5261,7 @@
         <v>44820</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44865</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         <v>44958</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         <v>45073</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         <v>43327</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>43328</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>43329</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5906,7 +5906,7 @@
         <v>43332</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5963,7 +5963,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         <v>43335</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6082,7 +6082,7 @@
         <v>43348</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>43360</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6263,7 +6263,7 @@
         <v>43404</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         <v>43405</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>43423</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6506,7 +6506,7 @@
         <v>43424</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>43425</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6749,7 +6749,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6806,7 +6806,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6863,7 +6863,7 @@
         <v>43433</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
         <v>43452</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43453</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43454</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7101,7 +7101,7 @@
         <v>43467</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7163,7 +7163,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         <v>43475</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43514</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43515</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43516</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43517</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         <v>43523</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7934,7 +7934,7 @@
         <v>43531</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7991,7 +7991,7 @@
         <v>43558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8048,7 +8048,7 @@
         <v>43602</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>43606</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         <v>43608</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>43614</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         <v>43626</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8415,7 +8415,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8472,7 +8472,7 @@
         <v>43633</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>43642</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8648,7 +8648,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8705,7 +8705,7 @@
         <v>43644</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8824,7 +8824,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>43650</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8943,7 +8943,7 @@
         <v>43651</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9067,7 +9067,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>43654</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43657</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>43673</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9434,7 +9434,7 @@
         <v>43677</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         <v>43683</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>43684</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43690</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>43696</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
         <v>43703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10168,7 +10168,7 @@
         <v>43704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10230,7 +10230,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10292,7 +10292,7 @@
         <v>43710</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10354,7 +10354,7 @@
         <v>43714</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>43721</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10478,7 +10478,7 @@
         <v>43734</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10592,7 +10592,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10649,7 +10649,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10706,7 +10706,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10763,7 +10763,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10820,7 +10820,7 @@
         <v>43735</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43738</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>43752</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11001,7 +11001,7 @@
         <v>43760</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>43762</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11182,7 +11182,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11239,7 +11239,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11296,7 +11296,7 @@
         <v>43788</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11410,7 +11410,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43790</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11529,7 +11529,7 @@
         <v>43791</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11591,7 +11591,7 @@
         <v>43792</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11648,7 +11648,7 @@
         <v>43793</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11705,7 +11705,7 @@
         <v>43811</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
         <v>43815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11819,7 +11819,7 @@
         <v>43817</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11943,7 +11943,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>43819</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>43852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>43935</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43936</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12243,7 +12243,7 @@
         <v>43966</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12305,7 +12305,7 @@
         <v>43971</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12367,7 +12367,7 @@
         <v>43976</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12429,7 +12429,7 @@
         <v>43980</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12553,7 +12553,7 @@
         <v>43987</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>43991</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44005</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12739,7 +12739,7 @@
         <v>44011</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12801,7 +12801,7 @@
         <v>44022</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44029</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44060</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>44061</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13106,7 +13106,7 @@
         <v>44062</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13168,7 +13168,7 @@
         <v>44067</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13230,7 +13230,7 @@
         <v>44088</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         <v>44090</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
         <v>44092</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>44095</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13478,7 +13478,7 @@
         <v>44096</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>44098</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44102</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>44113</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13721,7 +13721,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13783,7 +13783,7 @@
         <v>44116</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>44126</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13907,7 +13907,7 @@
         <v>44133</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>44138</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         <v>44140</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14093,7 +14093,7 @@
         <v>44144</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14155,7 +14155,7 @@
         <v>44147</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14217,7 +14217,7 @@
         <v>44151</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14279,7 +14279,7 @@
         <v>44158</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         <v>44159</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>44161</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14465,7 +14465,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44162</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14589,7 +14589,7 @@
         <v>44172</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14646,7 +14646,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14703,7 +14703,7 @@
         <v>44173</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14765,7 +14765,7 @@
         <v>44186</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14827,7 +14827,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44238</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14951,7 +14951,7 @@
         <v>44244</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15013,7 +15013,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15075,7 +15075,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44245</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15323,7 +15323,7 @@
         <v>44246</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>44344</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15571,7 +15571,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>44355</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44358</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15757,7 +15757,7 @@
         <v>44362</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>44369</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>44370</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>44375</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15995,7 +15995,7 @@
         <v>44378</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>44382</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44391</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44393</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>44404</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>44417</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16419,7 +16419,7 @@
         <v>44425</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16481,7 +16481,7 @@
         <v>44431</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
         <v>44433</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16595,7 +16595,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16657,7 +16657,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16714,7 +16714,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16771,7 +16771,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16828,7 +16828,7 @@
         <v>44437</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
         <v>44442</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16947,7 +16947,7 @@
         <v>44454</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17071,7 +17071,7 @@
         <v>44462</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         <v>44474</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17195,7 +17195,7 @@
         <v>44477</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17252,7 +17252,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17309,7 +17309,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17366,7 +17366,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17423,7 +17423,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17480,7 +17480,7 @@
         <v>44490</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17542,7 +17542,7 @@
         <v>44491</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17604,7 +17604,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17728,7 +17728,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17971,7 +17971,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18033,7 +18033,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18343,7 +18343,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18529,7 +18529,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18891,7 +18891,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19258,7 +19258,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19444,7 +19444,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19977,7 +19977,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20153,7 +20153,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20215,7 +20215,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20277,7 +20277,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20334,7 +20334,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20391,7 +20391,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20453,7 +20453,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20515,7 +20515,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20577,7 +20577,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20701,7 +20701,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20763,7 +20763,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20825,7 +20825,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20949,7 +20949,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21011,7 +21011,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21068,7 +21068,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21182,7 +21182,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21244,7 +21244,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21301,7 +21301,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21611,7 +21611,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21673,7 +21673,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21735,7 +21735,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21983,7 +21983,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22107,7 +22107,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22355,7 +22355,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22412,7 +22412,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22469,7 +22469,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22531,7 +22531,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22831,7 +22831,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22893,7 +22893,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22955,7 +22955,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23141,7 +23141,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23203,7 +23203,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23265,7 +23265,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23327,7 +23327,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23389,7 +23389,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23451,7 +23451,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23513,7 +23513,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23570,7 +23570,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23632,7 +23632,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23689,7 +23689,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23751,7 +23751,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23808,7 +23808,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23865,7 +23865,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23927,7 +23927,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23989,7 +23989,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24051,7 +24051,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24108,7 +24108,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24170,7 +24170,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24232,7 +24232,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24289,7 +24289,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24351,7 +24351,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24475,7 +24475,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24532,7 +24532,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24594,7 +24594,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24656,7 +24656,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24780,7 +24780,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24837,7 +24837,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24899,7 +24899,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24956,7 +24956,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25189,7 +25189,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25251,7 +25251,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25432,7 +25432,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25494,7 +25494,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25556,7 +25556,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25618,7 +25618,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25680,7 +25680,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25742,7 +25742,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25928,7 +25928,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25990,7 +25990,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26052,7 +26052,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26114,7 +26114,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26171,7 +26171,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26228,7 +26228,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26290,7 +26290,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26352,7 +26352,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26538,7 +26538,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26600,7 +26600,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26662,7 +26662,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26900,7 +26900,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26957,7 +26957,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27081,7 +27081,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27143,7 +27143,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27205,7 +27205,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27329,7 +27329,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27391,7 +27391,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44109</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44173</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3151,14 +3151,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 59029-2018</t>
+          <t>A 23018-2023</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>43416</v>
+        <v>45073</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3176,19 +3176,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>21.3</v>
+        <v>2.9</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -3203,12 +3203,108 @@
         <v>5</v>
       </c>
       <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>7</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Järpe
+Knottrig blåslav
+Orange taggsvamp
+Talltita
+Vedskivlav
+Norrlandslav
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 23018-2023.xlsx", "A 23018-2023")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 23018-2023.png", "A 23018-2023")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 23018-2023.docx", "A 23018-2023")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 23018-2023.docx", "A 23018-2023")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 23018-2023.docx", "A 23018-2023")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 23018-2023.docx", "A 23018-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 59029-2018</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>43416</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>JOKKMOKK</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
         <v>6</v>
       </c>
-      <c r="R27" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>Gräddporing
 Blå taggsvamp
@@ -3218,92 +3314,92 @@
 Skarp dropptaggsvamp</t>
         </is>
       </c>
-      <c r="S27">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 59029-2018.xlsx", "A 59029-2018")</f>
         <v/>
       </c>
-      <c r="T27">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 59029-2018.png", "A 59029-2018")</f>
         <v/>
       </c>
-      <c r="V27">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 59029-2018.docx", "A 59029-2018")</f>
         <v/>
       </c>
-      <c r="W27">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 59029-2018.docx", "A 59029-2018")</f>
         <v/>
       </c>
-      <c r="X27">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 59029-2018.docx", "A 59029-2018")</f>
         <v/>
       </c>
-      <c r="Y27">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 59029-2018.docx", "A 59029-2018")</f>
         <v/>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" t="inlineStr">
         <is>
           <t>A 36552-2019</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B29" s="1" t="n">
         <v>43669</v>
       </c>
-      <c r="C28" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>JOKKMOKK</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="C29" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>JOKKMOKK</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>38</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J29" t="n">
         <v>4</v>
       </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>4</v>
       </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>6</v>
       </c>
-      <c r="R28" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>Granticka
 Kolflarnlav
@@ -3313,87 +3409,87 @@
 Skinnlav</t>
         </is>
       </c>
-      <c r="S28">
+      <c r="S29">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 36552-2019.xlsx", "A 36552-2019")</f>
         <v/>
       </c>
-      <c r="T28">
+      <c r="T29">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 36552-2019.png", "A 36552-2019")</f>
         <v/>
       </c>
-      <c r="V28">
+      <c r="V29">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 36552-2019.docx", "A 36552-2019")</f>
         <v/>
       </c>
-      <c r="W28">
+      <c r="W29">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 36552-2019.docx", "A 36552-2019")</f>
         <v/>
       </c>
-      <c r="X28">
+      <c r="X29">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 36552-2019.docx", "A 36552-2019")</f>
         <v/>
       </c>
-      <c r="Y28">
+      <c r="Y29">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 36552-2019.docx", "A 36552-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="inlineStr">
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" t="inlineStr">
         <is>
           <t>A 34560-2020</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B30" s="1" t="n">
         <v>44033</v>
       </c>
-      <c r="C29" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>JOKKMOKK</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
+      <c r="C30" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>JOKKMOKK</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
         <v>21.8</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>4</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K30" t="n">
         <v>2</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>6</v>
       </c>
-      <c r="P29" t="n">
+      <c r="P30" t="n">
         <v>2</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="Q30" t="n">
         <v>6</v>
       </c>
-      <c r="R29" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>Goliatmusseron
 Tajgataggsvamp
@@ -3403,92 +3499,92 @@
 Vaddporing</t>
         </is>
       </c>
-      <c r="S29">
+      <c r="S30">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 34560-2020.xlsx", "A 34560-2020")</f>
         <v/>
       </c>
-      <c r="T29">
+      <c r="T30">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 34560-2020.png", "A 34560-2020")</f>
         <v/>
       </c>
-      <c r="V29">
+      <c r="V30">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 34560-2020.docx", "A 34560-2020")</f>
         <v/>
       </c>
-      <c r="W29">
+      <c r="W30">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 34560-2020.docx", "A 34560-2020")</f>
         <v/>
       </c>
-      <c r="X29">
+      <c r="X30">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 34560-2020.docx", "A 34560-2020")</f>
         <v/>
       </c>
-      <c r="Y29">
+      <c r="Y30">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 34560-2020.docx", "A 34560-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" t="inlineStr">
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" t="inlineStr">
         <is>
           <t>A 24068-2022</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B31" s="1" t="n">
         <v>44722</v>
       </c>
-      <c r="C30" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>JOKKMOKK</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
+      <c r="C31" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>JOKKMOKK</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G31" t="n">
         <v>5</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>3</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J31" t="n">
         <v>3</v>
       </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>3</v>
       </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>6</v>
       </c>
-      <c r="R30" s="2" t="inlineStr">
+      <c r="R31" s="2" t="inlineStr">
         <is>
           <t>Blanksvart spiklav
 Blå taggsvamp
@@ -3498,123 +3594,28 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S30">
+      <c r="S31">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 24068-2022.xlsx", "A 24068-2022")</f>
         <v/>
       </c>
-      <c r="T30">
+      <c r="T31">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 24068-2022.png", "A 24068-2022")</f>
         <v/>
       </c>
-      <c r="V30">
+      <c r="V31">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 24068-2022.docx", "A 24068-2022")</f>
         <v/>
       </c>
-      <c r="W30">
+      <c r="W31">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 24068-2022.docx", "A 24068-2022")</f>
         <v/>
       </c>
-      <c r="X30">
+      <c r="X31">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 24068-2022.docx", "A 24068-2022")</f>
         <v/>
       </c>
-      <c r="Y30">
+      <c r="Y31">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 24068-2022.docx", "A 24068-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>A 23018-2023</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="n">
-        <v>45073</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>45188</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>JOKKMOKK</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>4</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>6</v>
-      </c>
-      <c r="R31" s="2" t="inlineStr">
-        <is>
-          <t>Knottrig blåslav
-Orange taggsvamp
-Talltita
-Vedskivlav
-Norrlandslav
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 23018-2023.xlsx", "A 23018-2023")</f>
-        <v/>
-      </c>
-      <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 23018-2023.png", "A 23018-2023")</f>
-        <v/>
-      </c>
-      <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 23018-2023.docx", "A 23018-2023")</f>
-        <v/>
-      </c>
-      <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 23018-2023.docx", "A 23018-2023")</f>
-        <v/>
-      </c>
-      <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 23018-2023.docx", "A 23018-2023")</f>
-        <v/>
-      </c>
-      <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 23018-2023.docx", "A 23018-2023")</f>
         <v/>
       </c>
     </row>
@@ -3628,7 +3629,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3722,7 +3723,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3816,7 +3817,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3910,7 +3911,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4003,7 +4004,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4095,7 +4096,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4187,7 +4188,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4274,7 +4275,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4366,7 +4367,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4458,7 +4459,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4550,7 +4551,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4642,7 +4643,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4728,7 +4729,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4814,7 +4815,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4905,7 +4906,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4996,7 +4997,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5086,7 +5087,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5169,14 +5170,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 72480-2021</t>
+          <t>A 59526-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44545</v>
+        <v>44491</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5188,8 +5189,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>8.800000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -5223,45 +5229,45 @@
       </c>
       <c r="R49" s="2" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="S49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 72480-2021.xlsx", "A 72480-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 59526-2021.xlsx", "A 59526-2021")</f>
         <v/>
       </c>
       <c r="T49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 72480-2021.png", "A 72480-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 59526-2021.png", "A 59526-2021")</f>
         <v/>
       </c>
       <c r="V49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 72480-2021.docx", "A 72480-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 59526-2021.docx", "A 59526-2021")</f>
         <v/>
       </c>
       <c r="W49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 72480-2021.docx", "A 72480-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 59526-2021.docx", "A 59526-2021")</f>
         <v/>
       </c>
       <c r="X49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 72480-2021.docx", "A 72480-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 59526-2021.docx", "A 59526-2021")</f>
         <v/>
       </c>
       <c r="Y49">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 72480-2021.docx", "A 72480-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 59526-2021.docx", "A 59526-2021")</f>
         <v/>
       </c>
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 40121-2022</t>
+          <t>A 72480-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44820</v>
+        <v>44545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5273,13 +5279,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>20.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -5313,45 +5314,45 @@
       </c>
       <c r="R50" s="2" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="S50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 40121-2022.xlsx", "A 40121-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 72480-2021.xlsx", "A 72480-2021")</f>
         <v/>
       </c>
       <c r="T50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 40121-2022.png", "A 40121-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 72480-2021.png", "A 72480-2021")</f>
         <v/>
       </c>
       <c r="V50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 40121-2022.docx", "A 40121-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 72480-2021.docx", "A 72480-2021")</f>
         <v/>
       </c>
       <c r="W50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 40121-2022.docx", "A 40121-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 72480-2021.docx", "A 72480-2021")</f>
         <v/>
       </c>
       <c r="X50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 40121-2022.docx", "A 40121-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 72480-2021.docx", "A 72480-2021")</f>
         <v/>
       </c>
       <c r="Y50">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 40121-2022.docx", "A 40121-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 72480-2021.docx", "A 72480-2021")</f>
         <v/>
       </c>
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 50237-2022</t>
+          <t>A 40121-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44865</v>
+        <v>44820</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5369,17 +5370,17 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>13.4</v>
+        <v>20.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
         <v>1</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -5403,45 +5404,45 @@
       </c>
       <c r="R51" s="2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="S51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 50237-2022.xlsx", "A 50237-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 40121-2022.xlsx", "A 40121-2022")</f>
         <v/>
       </c>
       <c r="T51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 50237-2022.png", "A 50237-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 40121-2022.png", "A 40121-2022")</f>
         <v/>
       </c>
       <c r="V51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 50237-2022.docx", "A 50237-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 40121-2022.docx", "A 40121-2022")</f>
         <v/>
       </c>
       <c r="W51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 50237-2022.docx", "A 50237-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 40121-2022.docx", "A 40121-2022")</f>
         <v/>
       </c>
       <c r="X51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 50237-2022.docx", "A 50237-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 40121-2022.docx", "A 40121-2022")</f>
         <v/>
       </c>
       <c r="Y51">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 50237-2022.docx", "A 50237-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 40121-2022.docx", "A 40121-2022")</f>
         <v/>
       </c>
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 5824-2023</t>
+          <t>A 50237-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44958</v>
+        <v>44865</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5453,17 +5454,22 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>6.7</v>
+        <v>13.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -5478,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -5488,45 +5494,45 @@
       </c>
       <c r="R52" s="2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="S52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 5824-2023.xlsx", "A 5824-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 50237-2022.xlsx", "A 50237-2022")</f>
         <v/>
       </c>
       <c r="T52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 5824-2023.png", "A 5824-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 50237-2022.png", "A 50237-2022")</f>
         <v/>
       </c>
       <c r="V52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 5824-2023.docx", "A 5824-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 50237-2022.docx", "A 50237-2022")</f>
         <v/>
       </c>
       <c r="W52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 5824-2023.docx", "A 5824-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 50237-2022.docx", "A 50237-2022")</f>
         <v/>
       </c>
       <c r="X52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 5824-2023.docx", "A 5824-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 50237-2022.docx", "A 50237-2022")</f>
         <v/>
       </c>
       <c r="Y52">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 5824-2023.docx", "A 5824-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 50237-2022.docx", "A 50237-2022")</f>
         <v/>
       </c>
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 23026-2023</t>
+          <t>A 5824-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45073</v>
+        <v>44958</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5538,23 +5544,18 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>3.1</v>
+        <v>6.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
         <v>1</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -5578,45 +5579,45 @@
       </c>
       <c r="R53" s="2" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="S53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 23026-2023.xlsx", "A 23026-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 5824-2023.xlsx", "A 5824-2023")</f>
         <v/>
       </c>
       <c r="T53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 23026-2023.png", "A 23026-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 5824-2023.png", "A 5824-2023")</f>
         <v/>
       </c>
       <c r="V53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 23026-2023.docx", "A 23026-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 5824-2023.docx", "A 5824-2023")</f>
         <v/>
       </c>
       <c r="W53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 23026-2023.docx", "A 23026-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 5824-2023.docx", "A 5824-2023")</f>
         <v/>
       </c>
       <c r="X53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 23026-2023.docx", "A 23026-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 5824-2023.docx", "A 5824-2023")</f>
         <v/>
       </c>
       <c r="Y53">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 23026-2023.docx", "A 23026-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 5824-2023.docx", "A 5824-2023")</f>
         <v/>
       </c>
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 36239-2018</t>
+          <t>A 23026-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>43327</v>
+        <v>45073</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5630,17 +5631,17 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>40.1</v>
+        <v>3.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -5664,21 +5665,49 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R54" s="2" t="inlineStr">
+        <is>
+          <t>Bollvitmossa</t>
+        </is>
+      </c>
+      <c r="S54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 23026-2023.xlsx", "A 23026-2023")</f>
+        <v/>
+      </c>
+      <c r="T54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 23026-2023.png", "A 23026-2023")</f>
+        <v/>
+      </c>
+      <c r="V54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 23026-2023.docx", "A 23026-2023")</f>
+        <v/>
+      </c>
+      <c r="W54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 23026-2023.docx", "A 23026-2023")</f>
+        <v/>
+      </c>
+      <c r="X54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 23026-2023.docx", "A 23026-2023")</f>
+        <v/>
+      </c>
+      <c r="Y54">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 23026-2023.docx", "A 23026-2023")</f>
+        <v/>
+      </c>
     </row>
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 36375-2018</t>
+          <t>A 36239-2018</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>43328</v>
+        <v>43327</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5690,8 +5719,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>6.2</v>
+        <v>40.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5728,14 +5762,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 36373-2018</t>
+          <t>A 36375-2018</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5748,7 +5782,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5785,14 +5819,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 36378-2018</t>
+          <t>A 36373-2018</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5805,7 +5839,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>7.3</v>
+        <v>4.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5842,14 +5876,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 36690-2018</t>
+          <t>A 36378-2018</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>43329</v>
+        <v>43328</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5862,7 +5896,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.5</v>
+        <v>7.3</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5899,14 +5933,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 36721-2018</t>
+          <t>A 36690-2018</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>43332</v>
+        <v>43329</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5919,7 +5953,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>7.6</v>
+        <v>2.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5956,14 +5990,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 37158-2018</t>
+          <t>A 36721-2018</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5975,13 +6009,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>25.6</v>
+        <v>7.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -6018,14 +6047,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 38440-2018</t>
+          <t>A 37158-2018</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>43335</v>
+        <v>43332</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6037,8 +6066,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>23</v>
+        <v>25.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -6075,14 +6109,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 41277-2018</t>
+          <t>A 38440-2018</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>43348</v>
+        <v>43335</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6094,13 +6128,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>5.4</v>
+        <v>23</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -6137,14 +6166,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 45310-2018</t>
+          <t>A 41277-2018</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>43360</v>
+        <v>43348</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6156,8 +6185,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>8.6</v>
+        <v>5.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -6194,14 +6228,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 54157-2018</t>
+          <t>A 45310-2018</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>43392</v>
+        <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6213,13 +6247,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -6256,14 +6285,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 57630-2018</t>
+          <t>A 54157-2018</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>43404</v>
+        <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6277,11 +6306,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>115.7</v>
+        <v>7.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -6318,14 +6347,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 57631-2018</t>
+          <t>A 57630-2018</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6343,7 +6372,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>6.2</v>
+        <v>115.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -6380,14 +6409,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 60324-2018</t>
+          <t>A 57631-2018</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>43405</v>
+        <v>43404</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6399,8 +6428,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>68.09999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -6437,14 +6471,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 65132-2018</t>
+          <t>A 60324-2018</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>43423</v>
+        <v>43405</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6456,13 +6490,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>12</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -6499,14 +6528,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 66076-2018</t>
+          <t>A 65132-2018</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>43424</v>
+        <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6524,7 +6553,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>19.4</v>
+        <v>12</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -6561,14 +6590,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 66115-2018</t>
+          <t>A 66076-2018</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>43425</v>
+        <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6586,7 +6615,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.7</v>
+        <v>19.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -6623,14 +6652,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 62270-2018</t>
+          <t>A 66115-2018</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6642,8 +6671,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>13.7</v>
+        <v>5.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6680,14 +6714,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 66105-2018</t>
+          <t>A 62270-2018</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6699,13 +6733,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>11</v>
+        <v>13.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6742,14 +6771,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 65574-2018</t>
+          <t>A 66105-2018</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6761,8 +6790,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>19.2</v>
+        <v>11</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6799,14 +6833,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 62265-2018</t>
+          <t>A 65574-2018</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6819,7 +6853,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.6</v>
+        <v>19.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6856,14 +6890,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 67779-2018</t>
+          <t>A 62265-2018</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43433</v>
+        <v>43425</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6875,13 +6909,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6918,14 +6947,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 71159-2018</t>
+          <t>A 67779-2018</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43452</v>
+        <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6937,8 +6966,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6975,14 +7009,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 71352-2018</t>
+          <t>A 71159-2018</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43453</v>
+        <v>43452</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6994,13 +7028,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>96.09999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -7037,14 +7066,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 71854-2018</t>
+          <t>A 71352-2018</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43454</v>
+        <v>43453</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7056,8 +7085,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>4.6</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -7094,14 +7128,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 97-2019</t>
+          <t>A 71854-2018</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43467</v>
+        <v>43454</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7113,13 +7147,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -7156,14 +7185,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 57-2019</t>
+          <t>A 97-2019</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7181,7 +7210,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>6.4</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -7218,14 +7247,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 198-2019</t>
+          <t>A 57-2019</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7243,7 +7272,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>6.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -7280,14 +7309,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 2288-2019</t>
+          <t>A 198-2019</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>43475</v>
+        <v>43467</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7299,8 +7328,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -7337,14 +7371,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 7539-2019</t>
+          <t>A 2288-2019</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>43493</v>
+        <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7357,7 +7391,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>9.300000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -7394,14 +7428,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 7527-2019</t>
+          <t>A 7539-2019</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7414,7 +7448,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -7451,14 +7485,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 7536-2019</t>
+          <t>A 7527-2019</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7471,7 +7505,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -7508,14 +7542,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 10689-2019</t>
+          <t>A 7536-2019</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>43514</v>
+        <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7528,7 +7562,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -7565,14 +7599,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11062-2019</t>
+          <t>A 10689-2019</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>43515</v>
+        <v>43514</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7585,7 +7619,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -7622,14 +7656,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 11151-2019</t>
+          <t>A 11062-2019</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>43516</v>
+        <v>43515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7642,7 +7676,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7679,14 +7713,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 11571-2019</t>
+          <t>A 11151-2019</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>43517</v>
+        <v>43516</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7698,13 +7732,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7741,14 +7770,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 11645-2019</t>
+          <t>A 11571-2019</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7766,7 +7795,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>13.7</v>
+        <v>18</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7803,14 +7832,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 12509-2019</t>
+          <t>A 11645-2019</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>43523</v>
+        <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7824,11 +7853,11 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5.4</v>
+        <v>13.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7865,14 +7894,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 12608-2019</t>
+          <t>A 12509-2019</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7890,7 +7919,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>5.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7927,14 +7956,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 13933-2019</t>
+          <t>A 12608-2019</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>43531</v>
+        <v>43523</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7946,8 +7975,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7984,14 +8018,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 18282-2019</t>
+          <t>A 13933-2019</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>43558</v>
+        <v>43531</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8004,7 +8038,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -8041,14 +8075,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 25606-2019</t>
+          <t>A 18282-2019</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>43602</v>
+        <v>43558</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8060,13 +8094,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>17.9</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -8103,14 +8132,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25351-2019</t>
+          <t>A 25606-2019</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>43606</v>
+        <v>43602</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8124,11 +8153,11 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>47.8</v>
+        <v>17.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -8165,14 +8194,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25352-2019</t>
+          <t>A 25351-2019</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8190,7 +8219,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>60.5</v>
+        <v>47.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -8227,14 +8256,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 25981-2019</t>
+          <t>A 25352-2019</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>43608</v>
+        <v>43606</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8246,8 +8275,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>2.6</v>
+        <v>60.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -8284,14 +8318,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 27041-2019</t>
+          <t>A 25981-2019</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>43614</v>
+        <v>43608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8303,13 +8337,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -8346,14 +8375,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 28379-2019</t>
+          <t>A 27041-2019</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>43626</v>
+        <v>43614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8371,7 +8400,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -8408,14 +8437,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 29447-2019</t>
+          <t>A 28379-2019</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8427,8 +8456,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -8465,14 +8499,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 30042-2019</t>
+          <t>A 29447-2019</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>43633</v>
+        <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8484,13 +8518,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -8527,14 +8556,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 30264-2019</t>
+          <t>A 30042-2019</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8546,8 +8575,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -8584,14 +8618,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 31896-2019</t>
+          <t>A 30264-2019</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>43642</v>
+        <v>43633</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8604,7 +8638,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>7.1</v>
+        <v>1.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -8641,14 +8675,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 31895-2019</t>
+          <t>A 31896-2019</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8661,7 +8695,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.8</v>
+        <v>7.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8698,14 +8732,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 32476-2019</t>
+          <t>A 31895-2019</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>43644</v>
+        <v>43642</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8717,13 +8751,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Naturvårdsverket</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>13.1</v>
+        <v>0.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8760,14 +8789,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 33212-2019</t>
+          <t>A 32476-2019</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>43649</v>
+        <v>43644</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8779,8 +8808,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Naturvårdsverket</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>7.3</v>
+        <v>13.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8817,14 +8851,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 33211-2019</t>
+          <t>A 33212-2019</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8837,7 +8871,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8874,14 +8908,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 33473-2019</t>
+          <t>A 33211-2019</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>43650</v>
+        <v>43649</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8893,13 +8927,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>3.7</v>
+        <v>7.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8936,14 +8965,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 33756-2019</t>
+          <t>A 33473-2019</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>43651</v>
+        <v>43650</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8957,11 +8986,11 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8998,14 +9027,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 33820-2019</t>
+          <t>A 33756-2019</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9019,11 +9048,11 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.7</v>
+        <v>0.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -9060,14 +9089,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 33821-2019</t>
+          <t>A 33820-2019</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9085,7 +9114,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -9122,14 +9151,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 34046-2019</t>
+          <t>A 33821-2019</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>43654</v>
+        <v>43651</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9143,11 +9172,11 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -9184,14 +9213,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 34571-2019</t>
+          <t>A 34046-2019</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>43657</v>
+        <v>43654</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9209,7 +9238,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -9246,14 +9275,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 34590-2019</t>
+          <t>A 34571-2019</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9271,7 +9300,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.2</v>
+        <v>2.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -9308,14 +9337,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 34586-2019</t>
+          <t>A 34590-2019</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9333,7 +9362,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.1</v>
+        <v>0.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -9370,14 +9399,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 36821-2019</t>
+          <t>A 34586-2019</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>43673</v>
+        <v>43657</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9389,8 +9418,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.3</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -9427,14 +9461,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 38092-2019</t>
+          <t>A 36821-2019</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>43677</v>
+        <v>43673</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9446,13 +9480,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -9489,14 +9518,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 38089-2019</t>
+          <t>A 38092-2019</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9514,7 +9543,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>8.6</v>
+        <v>1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -9551,14 +9580,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 38093-2019</t>
+          <t>A 38089-2019</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9576,7 +9605,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -9613,14 +9642,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 38005-2019</t>
+          <t>A 38093-2019</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>43683</v>
+        <v>43677</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9634,11 +9663,11 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -9675,14 +9704,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 38006-2019</t>
+          <t>A 38005-2019</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9700,7 +9729,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -9737,14 +9766,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 38659-2019</t>
+          <t>A 38006-2019</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>43684</v>
+        <v>43683</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9758,11 +9787,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -9799,14 +9828,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 39710-2019</t>
+          <t>A 38659-2019</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>43689</v>
+        <v>43684</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9820,11 +9849,11 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>18.7</v>
+        <v>4.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -9861,14 +9890,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 39398-2019</t>
+          <t>A 39710-2019</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>43690</v>
+        <v>43689</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9882,11 +9911,11 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>9.4</v>
+        <v>18.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -9923,14 +9952,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 40418-2019</t>
+          <t>A 39398-2019</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>43696</v>
+        <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9944,11 +9973,11 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.6</v>
+        <v>9.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -9985,14 +10014,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 42020-2019</t>
+          <t>A 40418-2019</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>43700</v>
+        <v>43696</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10004,8 +10033,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -10042,14 +10076,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 42413-2019</t>
+          <t>A 42020-2019</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>43703</v>
+        <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10062,7 +10096,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>17.5</v>
+        <v>3.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -10099,14 +10133,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 42300-2019</t>
+          <t>A 42413-2019</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10118,13 +10152,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>10.2</v>
+        <v>17.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -10161,14 +10190,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44263-2019</t>
+          <t>A 42300-2019</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>43704</v>
+        <v>43703</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10182,11 +10211,11 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>10.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -10223,14 +10252,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44269-2019</t>
+          <t>A 44263-2019</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10248,7 +10277,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -10285,14 +10314,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 44171-2019</t>
+          <t>A 44269-2019</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>43710</v>
+        <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10306,11 +10335,11 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -10347,14 +10376,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 45452-2019</t>
+          <t>A 44171-2019</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>43714</v>
+        <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10372,7 +10401,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -10409,14 +10438,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 47456-2019</t>
+          <t>A 45452-2019</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>43721</v>
+        <v>43714</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10430,11 +10459,11 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>14.2</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -10471,14 +10500,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 50288-2019</t>
+          <t>A 47456-2019</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>43734</v>
+        <v>43721</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10490,8 +10519,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>6.1</v>
+        <v>14.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -10528,14 +10562,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 50287-2019</t>
+          <t>A 50288-2019</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10548,7 +10582,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.5</v>
+        <v>6.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -10585,14 +10619,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 51840-2019</t>
+          <t>A 50287-2019</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10605,7 +10639,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>10.2</v>
+        <v>3.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -10642,14 +10676,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 50289-2019</t>
+          <t>A 51840-2019</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10662,7 +10696,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -10699,14 +10733,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 51829-2019</t>
+          <t>A 50289-2019</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10719,7 +10753,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>13.7</v>
+        <v>10.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -10756,14 +10790,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 51863-2019</t>
+          <t>A 51829-2019</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10776,7 +10810,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>6.5</v>
+        <v>13.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -10813,14 +10847,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 52089-2019</t>
+          <t>A 51863-2019</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>43735</v>
+        <v>43734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10870,14 +10904,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 59173-2019</t>
+          <t>A 52089-2019</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>43738</v>
+        <v>43735</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10889,13 +10923,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>167.3</v>
+        <v>6.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -10932,14 +10961,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 54036-2019</t>
+          <t>A 59173-2019</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>43752</v>
+        <v>43738</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10953,11 +10982,11 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.2</v>
+        <v>167.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -10994,14 +11023,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 55731-2019</t>
+          <t>A 54036-2019</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>43760</v>
+        <v>43752</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11013,8 +11042,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -11051,14 +11085,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56588-2019</t>
+          <t>A 55731-2019</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>43762</v>
+        <v>43760</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11070,13 +11104,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>175.4</v>
+        <v>1.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -11113,14 +11142,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 63349-2019</t>
+          <t>A 56588-2019</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>43787</v>
+        <v>43762</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11134,11 +11163,11 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>175.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -11175,14 +11204,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 62190-2019</t>
+          <t>A 63349-2019</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11194,8 +11223,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>10.2</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -11232,14 +11266,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 62191-2019</t>
+          <t>A 62190-2019</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11252,7 +11286,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.6</v>
+        <v>10.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -11289,14 +11323,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 62461-2019</t>
+          <t>A 62191-2019</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>43788</v>
+        <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11309,7 +11343,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -11346,14 +11380,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 62481-2019</t>
+          <t>A 62461-2019</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11366,7 +11400,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -11403,14 +11437,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 62480-2019</t>
+          <t>A 62481-2019</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11423,7 +11457,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -11460,14 +11494,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 63390-2019</t>
+          <t>A 62480-2019</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>43790</v>
+        <v>43788</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11479,13 +11513,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -11522,14 +11551,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 63219-2019</t>
+          <t>A 63390-2019</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>43791</v>
+        <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11543,11 +11572,11 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.5</v>
+        <v>14</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -11584,14 +11613,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 63243-2019</t>
+          <t>A 63219-2019</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>43792</v>
+        <v>43791</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11603,8 +11632,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -11641,14 +11675,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 63261-2019</t>
+          <t>A 63243-2019</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>43793</v>
+        <v>43792</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11661,7 +11695,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -11698,14 +11732,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 67227-2019</t>
+          <t>A 63261-2019</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>43811</v>
+        <v>43793</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11718,7 +11752,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -11755,14 +11789,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 67809-2019</t>
+          <t>A 67227-2019</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>43815</v>
+        <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11775,7 +11809,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -11812,14 +11846,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 68301-2019</t>
+          <t>A 67809-2019</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>43817</v>
+        <v>43815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11831,13 +11865,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G158" t="n">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -11874,14 +11903,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 68307-2019</t>
+          <t>A 68301-2019</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11899,7 +11928,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -11936,14 +11965,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 68310-2019</t>
+          <t>A 68307-2019</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11961,7 +11990,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>6.9</v>
+        <v>2.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -11998,14 +12027,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 995-2020</t>
+          <t>A 68310-2019</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>43819</v>
+        <v>43817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12017,8 +12046,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>23.9</v>
+        <v>6.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -12055,14 +12089,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 4680-2020</t>
+          <t>A 995-2020</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>43852</v>
+        <v>43819</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12075,7 +12109,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>48</v>
+        <v>23.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -12112,14 +12146,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 18992-2020</t>
+          <t>A 4680-2020</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>43935</v>
+        <v>43852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12131,13 +12165,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>3.9</v>
+        <v>48</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -12174,14 +12203,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 19150-2020</t>
+          <t>A 18992-2020</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12195,11 +12224,11 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -12236,14 +12265,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 23337-2020</t>
+          <t>A 19150-2020</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>43966</v>
+        <v>43936</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12257,11 +12286,11 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>22.6</v>
+        <v>1.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -12298,14 +12327,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 24055-2020</t>
+          <t>A 23337-2020</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>43971</v>
+        <v>43966</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12323,7 +12352,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.9</v>
+        <v>22.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -12360,14 +12389,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 24422-2020</t>
+          <t>A 24055-2020</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>43976</v>
+        <v>43971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12385,7 +12414,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -12422,14 +12451,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 25305-2020</t>
+          <t>A 24422-2020</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>43980</v>
+        <v>43976</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12443,11 +12472,11 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -12484,14 +12513,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 25163-2020</t>
+          <t>A 25305-2020</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12509,7 +12538,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>17.4</v>
+        <v>5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -12546,14 +12575,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 27058-2020</t>
+          <t>A 25163-2020</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>43987</v>
+        <v>43980</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12567,11 +12596,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>29</v>
+        <v>17.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -12608,14 +12637,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 27165-2020</t>
+          <t>A 27058-2020</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>43991</v>
+        <v>43987</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12629,11 +12658,11 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>10.3</v>
+        <v>29</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -12670,14 +12699,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 29798-2020</t>
+          <t>A 27165-2020</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44005</v>
+        <v>43991</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12691,11 +12720,11 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.9</v>
+        <v>10.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -12732,14 +12761,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 30809-2020</t>
+          <t>A 29798-2020</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44011</v>
+        <v>44005</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12753,11 +12782,11 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -12794,14 +12823,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 33730-2020</t>
+          <t>A 30809-2020</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44022</v>
+        <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12815,11 +12844,11 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -12856,14 +12885,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 34445-2020</t>
+          <t>A 33730-2020</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44029</v>
+        <v>44022</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12875,8 +12904,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -12913,14 +12947,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 38254-2020</t>
+          <t>A 34445-2020</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44060</v>
+        <v>44029</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12932,13 +12966,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>8.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -12975,14 +13004,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 38638-2020</t>
+          <t>A 38254-2020</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12996,11 +13025,11 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>22.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -13037,14 +13066,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 38711-2020</t>
+          <t>A 38638-2020</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13058,11 +13087,11 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>16.1</v>
+        <v>22.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -13099,14 +13128,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 39085-2020</t>
+          <t>A 38711-2020</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13120,11 +13149,11 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>6.9</v>
+        <v>16.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -13161,14 +13190,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 40110-2020</t>
+          <t>A 39085-2020</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44067</v>
+        <v>44062</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13182,11 +13211,11 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>14.4</v>
+        <v>6.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -13223,14 +13252,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 46097-2020</t>
+          <t>A 40110-2020</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44088</v>
+        <v>44067</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13248,7 +13277,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2</v>
+        <v>14.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -13285,14 +13314,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 46779-2020</t>
+          <t>A 46097-2020</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13306,11 +13335,11 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>21.7</v>
+        <v>2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -13347,14 +13376,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 46375-2020</t>
+          <t>A 46779-2020</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13368,11 +13397,11 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>25.4</v>
+        <v>21.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -13409,14 +13438,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 47397-2020</t>
+          <t>A 46375-2020</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44095</v>
+        <v>44092</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13430,11 +13459,11 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.5</v>
+        <v>25.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -13471,14 +13500,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 47252-2020</t>
+          <t>A 47397-2020</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13492,7 +13521,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G185" t="n">
@@ -13533,14 +13562,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 48338-2020</t>
+          <t>A 47252-2020</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13554,11 +13583,11 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -13595,14 +13624,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 48463-2020</t>
+          <t>A 48338-2020</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44102</v>
+        <v>44098</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13614,8 +13643,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -13652,14 +13686,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 51436-2020</t>
+          <t>A 48463-2020</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44113</v>
+        <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13671,13 +13705,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>10.7</v>
+        <v>7.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -13714,14 +13743,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 51438-2020</t>
+          <t>A 51436-2020</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13739,7 +13768,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.5</v>
+        <v>10.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -13776,14 +13805,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 52043-2020</t>
+          <t>A 51438-2020</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44116</v>
+        <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13797,11 +13826,11 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -13838,14 +13867,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 54863-2020</t>
+          <t>A 52043-2020</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44126</v>
+        <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13859,11 +13888,11 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>43.3</v>
+        <v>2.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -13900,14 +13929,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 56851-2020</t>
+          <t>A 54863-2020</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44133</v>
+        <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13921,11 +13950,11 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G192" t="n">
-        <v>10.7</v>
+        <v>43.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -13962,14 +13991,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 57183-2020</t>
+          <t>A 56851-2020</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44138</v>
+        <v>44133</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13987,7 +14016,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.9</v>
+        <v>10.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -14024,14 +14053,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 57737-2020</t>
+          <t>A 57183-2020</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44140</v>
+        <v>44138</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14045,11 +14074,11 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -14086,14 +14115,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 58578-2020</t>
+          <t>A 57737-2020</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44144</v>
+        <v>44140</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14107,11 +14136,11 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>20.4</v>
+        <v>4.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -14148,14 +14177,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 59103-2020</t>
+          <t>A 58578-2020</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44147</v>
+        <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14169,11 +14198,11 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>20.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -14210,14 +14239,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 60142-2020</t>
+          <t>A 59103-2020</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44151</v>
+        <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14231,11 +14260,11 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -14272,14 +14301,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 62038-2020</t>
+          <t>A 60142-2020</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44158</v>
+        <v>44151</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14297,7 +14326,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>7.3</v>
+        <v>0.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -14334,14 +14363,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 62233-2020</t>
+          <t>A 62038-2020</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14355,11 +14384,11 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G199" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -14396,14 +14425,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 62757-2020</t>
+          <t>A 62233-2020</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44161</v>
+        <v>44159</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14417,11 +14446,11 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.4</v>
+        <v>7.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -14458,14 +14487,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 62759-2020</t>
+          <t>A 62757-2020</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14483,7 +14512,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -14520,14 +14549,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 63193-2020</t>
+          <t>A 62759-2020</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14541,11 +14570,11 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -14582,14 +14611,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 65648-2020</t>
+          <t>A 63193-2020</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44172</v>
+        <v>44162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14601,8 +14630,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -14639,14 +14673,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 65652-2020</t>
+          <t>A 65648-2020</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14659,7 +14693,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -14696,14 +14730,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 65542-2020</t>
+          <t>A 65652-2020</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14715,13 +14749,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -14758,14 +14787,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 68636-2020</t>
+          <t>A 65542-2020</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44186</v>
+        <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14779,11 +14808,11 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>42.3</v>
+        <v>5.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -14820,14 +14849,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 68583-2020</t>
+          <t>A 68636-2020</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14841,11 +14870,11 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>12.5</v>
+        <v>42.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -14882,14 +14911,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 7273-2021</t>
+          <t>A 68583-2020</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44238</v>
+        <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14903,11 +14932,11 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>19.8</v>
+        <v>12.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -14944,14 +14973,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 8350-2021</t>
+          <t>A 7273-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44244</v>
+        <v>44238</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14965,11 +14994,11 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.4</v>
+        <v>19.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -15006,14 +15035,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 8357-2021</t>
+          <t>A 8350-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15031,7 +15060,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>9.699999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -15068,14 +15097,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 8358-2021</t>
+          <t>A 8357-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15093,7 +15122,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>4.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -15130,14 +15159,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 8354-2021</t>
+          <t>A 8358-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15155,7 +15184,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -15192,14 +15221,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 8360-2021</t>
+          <t>A 8354-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15217,7 +15246,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -15254,14 +15283,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 8641-2021</t>
+          <t>A 8360-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44245</v>
+        <v>44244</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15279,7 +15308,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -15316,14 +15345,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 8855-2021</t>
+          <t>A 8641-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44246</v>
+        <v>44245</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15341,7 +15370,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>14.3</v>
+        <v>5.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -15378,14 +15407,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 8857-2021</t>
+          <t>A 8855-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15403,7 +15432,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>7.9</v>
+        <v>14.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -15440,14 +15469,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 8862-2021</t>
+          <t>A 8857-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15465,7 +15494,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.9</v>
+        <v>7.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -15502,14 +15531,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 25870-2021</t>
+          <t>A 8862-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44344</v>
+        <v>44246</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15523,11 +15552,11 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>7.8</v>
+        <v>2.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -15564,14 +15593,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 25866-2021</t>
+          <t>A 25870-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15589,7 +15618,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.6</v>
+        <v>7.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -15626,14 +15655,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 28319-2021</t>
+          <t>A 25866-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44355</v>
+        <v>44344</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15647,11 +15676,11 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G220" t="n">
-        <v>40</v>
+        <v>3.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -15688,14 +15717,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 29073-2021</t>
+          <t>A 28319-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44358</v>
+        <v>44355</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15709,11 +15738,11 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G221" t="n">
-        <v>9.6</v>
+        <v>40</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -15750,14 +15779,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 29955-2021</t>
+          <t>A 29073-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44362</v>
+        <v>44358</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15769,8 +15798,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>14.1</v>
+        <v>9.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -15807,14 +15841,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 31767-2021</t>
+          <t>A 29955-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44369</v>
+        <v>44362</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15826,13 +15860,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>12.1</v>
+        <v>14.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -15869,14 +15898,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 31902-2021</t>
+          <t>A 31767-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44370</v>
+        <v>44369</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15888,8 +15917,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>20</v>
+        <v>12.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -15926,14 +15960,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 32751-2021</t>
+          <t>A 31902-2021</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44375</v>
+        <v>44370</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15945,13 +15979,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Övriga statliga verk och myndigheter</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -15988,14 +16017,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 34062-2021</t>
+          <t>A 32751-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44378</v>
+        <v>44375</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16007,8 +16036,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>8.300000000000001</v>
+        <v>17</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -16045,14 +16079,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 34084-2021</t>
+          <t>A 34062-2021</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16065,7 +16099,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>9.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -16102,14 +16136,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 34752-2021</t>
+          <t>A 34084-2021</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44382</v>
+        <v>44378</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16121,13 +16155,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G228" t="n">
-        <v>1.3</v>
+        <v>9.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -16164,14 +16193,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 36607-2021</t>
+          <t>A 34752-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44391</v>
+        <v>44382</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16185,11 +16214,11 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>9.5</v>
+        <v>1.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -16226,14 +16255,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 37114-2021</t>
+          <t>A 36607-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44393</v>
+        <v>44391</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16247,11 +16276,11 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>30</v>
+        <v>9.5</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -16288,14 +16317,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 38039-2021</t>
+          <t>A 37114-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44404</v>
+        <v>44393</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16309,11 +16338,11 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.2</v>
+        <v>30</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -16350,14 +16379,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 39784-2021</t>
+          <t>A 38039-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44417</v>
+        <v>44404</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16371,7 +16400,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Naturvårdsverket</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G232" t="n">
@@ -16412,14 +16441,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 41923-2021</t>
+          <t>A 39784-2021</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44425</v>
+        <v>44417</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16433,11 +16462,11 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>Naturvårdsverket</t>
         </is>
       </c>
       <c r="G233" t="n">
-        <v>22</v>
+        <v>1.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -16474,14 +16503,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 43014-2021</t>
+          <t>A 41923-2021</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44431</v>
+        <v>44425</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16493,8 +16522,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Övriga statliga verk och myndigheter</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>2.8</v>
+        <v>22</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -16531,14 +16565,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 43781-2021</t>
+          <t>A 43014-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44433</v>
+        <v>44431</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16551,7 +16585,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -16588,14 +16622,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 43720-2021</t>
+          <t>A 43781-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16607,13 +16641,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>8</v>
+        <v>1.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -16650,14 +16679,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 43783-2021</t>
+          <t>A 43720-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16669,8 +16698,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -16707,14 +16741,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 43780-2021</t>
+          <t>A 43783-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16727,7 +16761,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -16764,14 +16798,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 43785-2021</t>
+          <t>A 43780-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16784,7 +16818,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -16821,14 +16855,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 44646-2021</t>
+          <t>A 43785-2021</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44437</v>
+        <v>44433</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16841,7 +16875,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -16878,14 +16912,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 46288-2021</t>
+          <t>A 44646-2021</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44442</v>
+        <v>44437</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16897,13 +16931,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>5.9</v>
+        <v>10</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -16940,14 +16969,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 49483-2021</t>
+          <t>A 46288-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44454</v>
+        <v>44442</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16961,11 +16990,11 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>SCA</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G242" t="n">
-        <v>24.2</v>
+        <v>5.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -17002,14 +17031,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 49482-2021</t>
+          <t>A 49483-2021</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17027,7 +17056,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>20.4</v>
+        <v>24.2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -17064,14 +17093,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 52266-2021</t>
+          <t>A 49482-2021</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44462</v>
+        <v>44454</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17085,11 +17114,11 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Övriga statliga verk och myndigheter</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>20.4</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -17126,14 +17155,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 55087-2021</t>
+          <t>A 52266-2021</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44474</v>
+        <v>44462</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17147,11 +17176,11 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>Övriga statliga verk och myndigheter</t>
         </is>
       </c>
       <c r="G245" t="n">
-        <v>22.9</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -17188,14 +17217,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 56199-2021</t>
+          <t>A 55087-2021</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44477</v>
+        <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17207,8 +17236,13 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>22.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -17245,14 +17279,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 56412-2021</t>
+          <t>A 56199-2021</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17265,7 +17299,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -17302,14 +17336,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 56516-2021</t>
+          <t>A 56412-2021</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17322,7 +17356,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -17359,14 +17393,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 56511-2021</t>
+          <t>A 56516-2021</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17379,7 +17413,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -17416,14 +17450,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 56523-2021</t>
+          <t>A 56511-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17436,7 +17470,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>6.6</v>
+        <v>2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -17473,14 +17507,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 59189-2021</t>
+          <t>A 56523-2021</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44490</v>
+        <v>44477</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17492,13 +17526,8 @@
           <t>JOKKMOKK</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G251" t="n">
-        <v>8.300000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -17535,14 +17564,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 59526-2021</t>
+          <t>A 59189-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44491</v>
+        <v>44490</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17560,7 +17589,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>3.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -17604,7 +17633,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17666,7 +17695,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17728,7 +17757,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17790,7 +17819,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17847,7 +17876,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17909,7 +17938,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17971,7 +18000,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18033,7 +18062,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18095,7 +18124,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18157,7 +18186,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18219,7 +18248,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18281,7 +18310,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18343,7 +18372,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18405,7 +18434,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18467,7 +18496,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18529,7 +18558,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18591,7 +18620,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18648,7 +18677,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18705,7 +18734,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18767,7 +18796,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18829,7 +18858,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18891,7 +18920,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18948,7 +18977,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19010,7 +19039,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19072,7 +19101,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19134,7 +19163,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19196,7 +19225,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19258,7 +19287,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19320,7 +19349,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19382,7 +19411,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19444,7 +19473,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19506,7 +19535,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19563,7 +19592,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19620,7 +19649,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19677,7 +19706,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19739,7 +19768,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19801,7 +19830,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19858,7 +19887,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19915,7 +19944,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19977,7 +20006,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20034,7 +20063,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20091,7 +20120,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20153,7 +20182,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20215,7 +20244,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20277,7 +20306,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20334,7 +20363,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20391,7 +20420,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20453,7 +20482,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20515,7 +20544,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20577,7 +20606,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20639,7 +20668,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20701,7 +20730,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20763,7 +20792,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20825,7 +20854,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20887,7 +20916,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20949,7 +20978,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21011,7 +21040,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21068,7 +21097,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21125,7 +21154,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21182,7 +21211,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21244,7 +21273,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21301,7 +21330,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21363,7 +21392,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21425,7 +21454,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21487,7 +21516,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21549,7 +21578,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21611,7 +21640,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21673,7 +21702,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21735,7 +21764,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21797,7 +21826,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21859,7 +21888,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21921,7 +21950,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21983,7 +22012,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22045,7 +22074,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22107,7 +22136,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22169,7 +22198,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22231,7 +22260,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22293,7 +22322,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22355,7 +22384,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22412,7 +22441,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22469,7 +22498,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22531,7 +22560,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22593,7 +22622,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22650,7 +22679,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22712,7 +22741,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22774,7 +22803,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22831,7 +22860,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22893,7 +22922,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22955,7 +22984,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23017,7 +23046,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23079,7 +23108,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23141,7 +23170,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23203,7 +23232,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23265,7 +23294,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23327,7 +23356,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23389,7 +23418,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23451,7 +23480,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23513,7 +23542,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23570,7 +23599,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23632,7 +23661,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23689,7 +23718,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23751,7 +23780,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23808,7 +23837,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23865,7 +23894,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23927,7 +23956,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23989,7 +24018,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24051,7 +24080,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24108,7 +24137,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24170,7 +24199,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24232,7 +24261,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24289,7 +24318,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24351,7 +24380,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24413,7 +24442,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24475,7 +24504,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24532,7 +24561,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24594,7 +24623,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24656,7 +24685,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24718,7 +24747,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24780,7 +24809,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24837,7 +24866,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24899,7 +24928,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24956,7 +24985,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25013,7 +25042,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25070,7 +25099,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25127,7 +25156,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25189,7 +25218,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25251,7 +25280,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25313,7 +25342,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25370,7 +25399,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25432,7 +25461,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25494,7 +25523,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25556,7 +25585,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25618,7 +25647,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25680,7 +25709,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25742,7 +25771,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25804,7 +25833,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25866,7 +25895,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25928,7 +25957,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25990,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26052,7 +26081,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26114,7 +26143,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26171,7 +26200,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26228,7 +26257,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26290,7 +26319,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26352,7 +26381,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26414,7 +26443,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26476,7 +26505,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26538,7 +26567,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26600,7 +26629,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26662,7 +26691,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26724,7 +26753,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26786,7 +26815,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26843,7 +26872,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26900,7 +26929,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26957,7 +26986,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27019,7 +27048,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27081,7 +27110,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27143,7 +27172,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27205,7 +27234,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27267,7 +27296,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27329,7 +27358,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27391,7 +27420,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27453,7 +27482,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27515,7 +27544,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44109</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44173</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>45073</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43669</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44033</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44722</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44491</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>44820</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>44865</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>44958</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>45073</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43327</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43328</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43329</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43332</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43335</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43348</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43404</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43405</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43425</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43452</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43453</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43454</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43467</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43514</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43516</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43523</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43531</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43558</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43602</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43606</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43633</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43642</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43644</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43649</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43650</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43651</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43654</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43657</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43673</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>43677</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43683</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43684</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43689</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43696</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43703</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43714</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43721</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>43734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>43735</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>43738</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43752</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>43760</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>43762</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>43788</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>43791</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43792</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43793</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>43817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43819</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43935</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>43936</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43966</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>43971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>43976</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>43980</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>43987</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>43991</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44005</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44022</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44029</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44060</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44061</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>44062</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44067</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44088</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44090</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44092</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44095</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>44096</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44098</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44133</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>44138</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>44140</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44151</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44158</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44159</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44172</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44238</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44244</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44245</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44246</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44344</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44355</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44358</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44362</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44369</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44370</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44375</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>44378</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16200,7 +16200,7 @@
         <v>44382</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>44391</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44393</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44404</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>44417</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>44425</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44431</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>44433</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>44437</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44442</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44454</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>44462</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44477</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>44490</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20606,7 +20606,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20792,7 +20792,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21330,7 +21330,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22322,7 +22322,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23718,7 +23718,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26143,7 +26143,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26200,7 +26200,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26567,7 +26567,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26929,7 +26929,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44109</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>44173</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
         <v>45073</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43669</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         <v>44033</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>44722</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3911,7 +3911,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>44491</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>44545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>44820</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
         <v>44865</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>44958</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
         <v>45073</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
         <v>43327</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>43328</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43329</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43332</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43335</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43348</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>43404</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
         <v>43405</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6535,7 +6535,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6659,7 +6659,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>43425</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7016,7 +7016,7 @@
         <v>43452</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7073,7 +7073,7 @@
         <v>43453</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7135,7 +7135,7 @@
         <v>43454</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43467</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43514</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43516</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>43523</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43531</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43558</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43602</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>43606</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>43608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>43614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>43633</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>43642</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>43644</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>43649</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8972,7 +8972,7 @@
         <v>43650</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>43651</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>43654</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9406,7 +9406,7 @@
         <v>43657</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9468,7 +9468,7 @@
         <v>43673</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9525,7 +9525,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         <v>43677</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9711,7 +9711,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43683</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>43684</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9897,7 +9897,7 @@
         <v>43689</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9959,7 +9959,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10021,7 +10021,7 @@
         <v>43696</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10083,7 +10083,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10140,7 +10140,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10197,7 +10197,7 @@
         <v>43703</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10321,7 +10321,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10383,7 +10383,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>43714</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10507,7 +10507,7 @@
         <v>43721</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10569,7 +10569,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10683,7 +10683,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10797,7 +10797,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10854,7 +10854,7 @@
         <v>43734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>43735</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10968,7 +10968,7 @@
         <v>43738</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>43752</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11092,7 +11092,7 @@
         <v>43760</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>43762</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11211,7 +11211,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>43788</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11620,7 +11620,7 @@
         <v>43791</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11682,7 +11682,7 @@
         <v>43792</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11739,7 +11739,7 @@
         <v>43793</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11853,7 +11853,7 @@
         <v>43815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11910,7 +11910,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11972,7 +11972,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>43817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         <v>43819</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         <v>43852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12210,7 +12210,7 @@
         <v>43935</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>43936</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12334,7 +12334,7 @@
         <v>43966</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>43971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>43976</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12520,7 +12520,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12582,7 +12582,7 @@
         <v>43980</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12644,7 +12644,7 @@
         <v>43987</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>43991</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44005</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12892,7 +12892,7 @@
         <v>44022</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>44029</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44060</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44061</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13197,7 +13197,7 @@
         <v>44062</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44067</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44088</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44090</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44092</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44095</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13569,7 +13569,7 @@
         <v>44096</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44098</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13812,7 +13812,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13936,7 +13936,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>44133</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>44138</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>44140</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14308,7 +14308,7 @@
         <v>44151</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>44158</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14432,7 +14432,7 @@
         <v>44159</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44172</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>44238</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15104,7 +15104,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15166,7 +15166,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15228,7 +15228,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>44244</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>44245</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15476,7 +15476,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15538,7 +15538,7 @@
         <v>44246</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15662,7 +15662,7 @@
         <v>44344</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15724,7 +15724,7 @@
         <v>44355</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15786,7 +15786,7 @@
         <v>44358</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44362</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44369</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15967,7 +15967,7 @@
         <v>44370</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44375</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16086,7 +16086,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16143,7 +16143,7 @@
         <v>44378</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16200,7 +16200,7 @@
         <v>44382</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>44391</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16324,7 +16324,7 @@
         <v>44393</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16386,7 +16386,7 @@
         <v>44404</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16448,7 +16448,7 @@
         <v>44417</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>44425</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         <v>44431</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16629,7 +16629,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16686,7 +16686,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16748,7 +16748,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16805,7 +16805,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16862,7 +16862,7 @@
         <v>44433</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16919,7 +16919,7 @@
         <v>44437</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16976,7 +16976,7 @@
         <v>44442</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17100,7 +17100,7 @@
         <v>44454</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17162,7 +17162,7 @@
         <v>44462</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17286,7 +17286,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17343,7 +17343,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17400,7 +17400,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17457,7 +17457,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>44477</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>44490</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17633,7 +17633,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17695,7 +17695,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17819,7 +17819,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17876,7 +17876,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17938,7 +17938,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18000,7 +18000,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18062,7 +18062,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18434,7 +18434,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18620,7 +18620,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18677,7 +18677,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18734,7 +18734,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18858,7 +18858,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18920,7 +18920,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18977,7 +18977,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19039,7 +19039,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19225,7 +19225,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19287,7 +19287,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19349,7 +19349,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19411,7 +19411,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19768,7 +19768,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19944,7 +19944,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20063,7 +20063,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20120,7 +20120,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20182,7 +20182,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20244,7 +20244,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20420,7 +20420,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20544,7 +20544,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20606,7 +20606,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20668,7 +20668,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20730,7 +20730,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20792,7 +20792,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20854,7 +20854,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21040,7 +21040,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21330,7 +21330,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21454,7 +21454,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21888,7 +21888,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21950,7 +21950,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22012,7 +22012,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22074,7 +22074,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22198,7 +22198,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22322,7 +22322,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22441,7 +22441,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22803,7 +22803,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22922,7 +22922,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22984,7 +22984,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23046,7 +23046,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23170,7 +23170,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23232,7 +23232,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23418,7 +23418,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23542,7 +23542,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23599,7 +23599,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23661,7 +23661,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23718,7 +23718,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24261,7 +24261,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24318,7 +24318,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24380,7 +24380,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24623,7 +24623,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24685,7 +24685,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24747,7 +24747,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24809,7 +24809,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24866,7 +24866,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24928,7 +24928,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24985,7 +24985,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25042,7 +25042,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25099,7 +25099,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25156,7 +25156,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25218,7 +25218,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25280,7 +25280,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25461,7 +25461,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25523,7 +25523,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25585,7 +25585,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25647,7 +25647,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25709,7 +25709,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25771,7 +25771,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25833,7 +25833,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25895,7 +25895,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25957,7 +25957,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26019,7 +26019,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26081,7 +26081,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26143,7 +26143,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26200,7 +26200,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26257,7 +26257,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26443,7 +26443,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26505,7 +26505,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26567,7 +26567,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26629,7 +26629,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26691,7 +26691,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26753,7 +26753,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26872,7 +26872,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26929,7 +26929,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26986,7 +26986,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27048,7 +27048,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27110,7 +27110,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27172,7 +27172,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27296,7 +27296,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27358,7 +27358,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27420,7 +27420,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27544,7 +27544,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2959,14 +2959,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 51520-2020</t>
+          <t>A 23018-2023</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44109</v>
+        <v>45073</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2980,23 +2980,23 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Allmännings- och besparingsskogar</t>
+          <t>SCA</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>30.5</v>
+        <v>2.9</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3011,12 +3011,109 @@
         <v>6</v>
       </c>
       <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>8</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Järpe
+Knottrig blåslav
+Motaggsvamp
+Orange taggsvamp
+Talltita
+Vedskivlav
+Norrlandslav
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 23018-2023.xlsx", "A 23018-2023")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 23018-2023.png", "A 23018-2023")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 23018-2023.docx", "A 23018-2023")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 23018-2023.docx", "A 23018-2023")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 23018-2023.docx", "A 23018-2023")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 23018-2023.docx", "A 23018-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 51520-2020</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>44109</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>JOKKMOKK</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
         <v>7</v>
       </c>
-      <c r="R25" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Mörk blåslav
 Dvärgbägarlav
@@ -3027,92 +3124,92 @@
 Skinnlav</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 51520-2020.xlsx", "A 51520-2020")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 51520-2020.png", "A 51520-2020")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 51520-2020.docx", "A 51520-2020")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 51520-2020.docx", "A 51520-2020")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 51520-2020.docx", "A 51520-2020")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 51520-2020.docx", "A 51520-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
         <is>
           <t>A 65342-2020</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B27" s="1" t="n">
         <v>44173</v>
       </c>
-      <c r="C26" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>JOKKMOKK</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
+      <c r="C27" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NORRBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>JOKKMOKK</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G27" t="n">
         <v>6.5</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J27" t="n">
         <v>6</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>6</v>
       </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>7</v>
       </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Blågrå svartspik
 Dvärgbägarlav
@@ -3123,124 +3220,28 @@
 Plattlummer</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 65342-2020.xlsx", "A 65342-2020")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 65342-2020.png", "A 65342-2020")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 65342-2020.docx", "A 65342-2020")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 65342-2020.docx", "A 65342-2020")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 65342-2020.docx", "A 65342-2020")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 65342-2020.docx", "A 65342-2020")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 23018-2023</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45073</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>NORRBOTTENS LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>JOKKMOKK</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>SCA</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>5</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>7</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Järpe
-Knottrig blåslav
-Orange taggsvamp
-Talltita
-Vedskivlav
-Norrlandslav
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/artfynd/A 23018-2023.xlsx", "A 23018-2023")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/kartor/A 23018-2023.png", "A 23018-2023")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomål/A 23018-2023.docx", "A 23018-2023")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/klagomålsmail/A 23018-2023.docx", "A 23018-2023")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsyn/A 23018-2023.docx", "A 23018-2023")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_JOKKMOKK/tillsynsmail/A 23018-2023.docx", "A 23018-2023")</f>
         <v/>
       </c>
     </row>
@@ -3254,7 +3255,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3349,7 +3350,7 @@
         <v>43669</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3444,7 +3445,7 @@
         <v>44033</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3534,7 +3535,7 @@
         <v>44722</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3629,7 +3630,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3723,7 +3724,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3817,7 +3818,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3911,7 +3912,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4004,7 +4005,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4096,7 +4097,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4188,7 +4189,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4275,7 +4276,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4367,7 +4368,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4459,7 +4460,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4551,7 +4552,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4643,7 +4644,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4729,7 +4730,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4815,7 +4816,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4906,7 +4907,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4997,7 +4998,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5087,7 +5088,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5177,7 +5178,7 @@
         <v>44491</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5267,7 +5268,7 @@
         <v>44545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5352,7 +5353,7 @@
         <v>44820</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5442,7 +5443,7 @@
         <v>44865</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5532,7 +5533,7 @@
         <v>44958</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5617,7 +5618,7 @@
         <v>45073</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5707,7 +5708,7 @@
         <v>43327</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5769,7 +5770,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5826,7 +5827,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5883,7 +5884,7 @@
         <v>43328</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5940,7 +5941,7 @@
         <v>43329</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5997,7 +5998,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6054,7 +6055,7 @@
         <v>43332</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6116,7 +6117,7 @@
         <v>43335</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6173,7 +6174,7 @@
         <v>43348</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6235,7 +6236,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6292,7 +6293,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6354,7 +6355,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6416,7 +6417,7 @@
         <v>43404</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6478,7 +6479,7 @@
         <v>43405</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6535,7 +6536,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6597,7 +6598,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6659,7 +6660,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6721,7 +6722,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6778,7 +6779,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6840,7 +6841,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6897,7 +6898,7 @@
         <v>43425</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6954,7 +6955,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7016,7 +7017,7 @@
         <v>43452</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7073,7 +7074,7 @@
         <v>43453</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7135,7 +7136,7 @@
         <v>43454</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7192,7 +7193,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7254,7 +7255,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7316,7 +7317,7 @@
         <v>43467</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7378,7 +7379,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7435,7 +7436,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7492,7 +7493,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7549,7 +7550,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7606,7 +7607,7 @@
         <v>43514</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7663,7 +7664,7 @@
         <v>43515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7720,7 +7721,7 @@
         <v>43516</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7777,7 +7778,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7839,7 +7840,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7901,7 +7902,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7963,7 +7964,7 @@
         <v>43523</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8025,7 +8026,7 @@
         <v>43531</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8082,7 +8083,7 @@
         <v>43558</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8139,7 +8140,7 @@
         <v>43602</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8201,7 +8202,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8263,7 +8264,7 @@
         <v>43606</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8325,7 +8326,7 @@
         <v>43608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8382,7 +8383,7 @@
         <v>43614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8444,7 +8445,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8506,7 +8507,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8563,7 +8564,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8625,7 +8626,7 @@
         <v>43633</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8682,7 +8683,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8739,7 +8740,7 @@
         <v>43642</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8796,7 +8797,7 @@
         <v>43644</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8858,7 +8859,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8915,7 +8916,7 @@
         <v>43649</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8972,7 +8973,7 @@
         <v>43650</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9034,7 +9035,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9096,7 +9097,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9158,7 +9159,7 @@
         <v>43651</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9220,7 +9221,7 @@
         <v>43654</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9282,7 +9283,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9344,7 +9345,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9406,7 +9407,7 @@
         <v>43657</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9468,7 +9469,7 @@
         <v>43673</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9525,7 +9526,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9587,7 +9588,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9649,7 +9650,7 @@
         <v>43677</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9711,7 +9712,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9773,7 +9774,7 @@
         <v>43683</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9835,7 +9836,7 @@
         <v>43684</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9897,7 +9898,7 @@
         <v>43689</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9959,7 +9960,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10021,7 +10022,7 @@
         <v>43696</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10083,7 +10084,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10140,7 +10141,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10197,7 +10198,7 @@
         <v>43703</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10259,7 +10260,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10321,7 +10322,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10383,7 +10384,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10445,7 +10446,7 @@
         <v>43714</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10507,7 +10508,7 @@
         <v>43721</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10569,7 +10570,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10626,7 +10627,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10683,7 +10684,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10740,7 +10741,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10797,7 +10798,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10854,7 +10855,7 @@
         <v>43734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10911,7 +10912,7 @@
         <v>43735</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10968,7 +10969,7 @@
         <v>43738</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11030,7 +11031,7 @@
         <v>43752</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11092,7 +11093,7 @@
         <v>43760</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11149,7 +11150,7 @@
         <v>43762</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11211,7 +11212,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11273,7 +11274,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11330,7 +11331,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11387,7 +11388,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11444,7 +11445,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11501,7 +11502,7 @@
         <v>43788</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11558,7 +11559,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11620,7 +11621,7 @@
         <v>43791</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11682,7 +11683,7 @@
         <v>43792</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11739,7 +11740,7 @@
         <v>43793</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11796,7 +11797,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11853,7 +11854,7 @@
         <v>43815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11910,7 +11911,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11972,7 +11973,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12034,7 +12035,7 @@
         <v>43817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12096,7 +12097,7 @@
         <v>43819</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12153,7 +12154,7 @@
         <v>43852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12210,7 +12211,7 @@
         <v>43935</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12272,7 +12273,7 @@
         <v>43936</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12334,7 +12335,7 @@
         <v>43966</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12396,7 +12397,7 @@
         <v>43971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12458,7 +12459,7 @@
         <v>43976</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12520,7 +12521,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12582,7 +12583,7 @@
         <v>43980</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12644,7 +12645,7 @@
         <v>43987</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12706,7 +12707,7 @@
         <v>43991</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12768,7 +12769,7 @@
         <v>44005</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12830,7 +12831,7 @@
         <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12892,7 +12893,7 @@
         <v>44022</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12954,7 +12955,7 @@
         <v>44029</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13011,7 +13012,7 @@
         <v>44060</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13073,7 +13074,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13135,7 +13136,7 @@
         <v>44061</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13197,7 +13198,7 @@
         <v>44062</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13259,7 +13260,7 @@
         <v>44067</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13321,7 +13322,7 @@
         <v>44088</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13383,7 +13384,7 @@
         <v>44090</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13445,7 +13446,7 @@
         <v>44092</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13507,7 +13508,7 @@
         <v>44095</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13569,7 +13570,7 @@
         <v>44096</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13631,7 +13632,7 @@
         <v>44098</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13693,7 +13694,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13750,7 +13751,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13812,7 +13813,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13874,7 +13875,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13936,7 +13937,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13998,7 +13999,7 @@
         <v>44133</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14060,7 +14061,7 @@
         <v>44138</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14122,7 +14123,7 @@
         <v>44140</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14184,7 +14185,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14246,7 +14247,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14308,7 +14309,7 @@
         <v>44151</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14370,7 +14371,7 @@
         <v>44158</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14432,7 +14433,7 @@
         <v>44159</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14494,7 +14495,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14556,7 +14557,7 @@
         <v>44161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14618,7 +14619,7 @@
         <v>44162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14680,7 +14681,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14737,7 +14738,7 @@
         <v>44172</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14794,7 +14795,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14856,7 +14857,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14918,7 +14919,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14980,7 +14981,7 @@
         <v>44238</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15042,7 +15043,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15104,7 +15105,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15166,7 +15167,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15228,7 +15229,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15290,7 +15291,7 @@
         <v>44244</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15352,7 +15353,7 @@
         <v>44245</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15414,7 +15415,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15476,7 +15477,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15538,7 +15539,7 @@
         <v>44246</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15600,7 +15601,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15662,7 +15663,7 @@
         <v>44344</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15724,7 +15725,7 @@
         <v>44355</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15786,7 +15787,7 @@
         <v>44358</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15848,7 +15849,7 @@
         <v>44362</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15905,7 +15906,7 @@
         <v>44369</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15967,7 +15968,7 @@
         <v>44370</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16024,7 +16025,7 @@
         <v>44375</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16086,7 +16087,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16143,7 +16144,7 @@
         <v>44378</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16200,7 +16201,7 @@
         <v>44382</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16262,7 +16263,7 @@
         <v>44391</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16324,7 +16325,7 @@
         <v>44393</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16386,7 +16387,7 @@
         <v>44404</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16448,7 +16449,7 @@
         <v>44417</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16510,7 +16511,7 @@
         <v>44425</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16572,7 +16573,7 @@
         <v>44431</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16629,7 +16630,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16686,7 +16687,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16748,7 +16749,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16805,7 +16806,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16862,7 +16863,7 @@
         <v>44433</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16919,7 +16920,7 @@
         <v>44437</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16976,7 +16977,7 @@
         <v>44442</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17038,7 +17039,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17100,7 +17101,7 @@
         <v>44454</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17162,7 +17163,7 @@
         <v>44462</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17224,7 +17225,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17286,7 +17287,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17343,7 +17344,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17400,7 +17401,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17457,7 +17458,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17514,7 +17515,7 @@
         <v>44477</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17571,7 +17572,7 @@
         <v>44490</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17633,7 +17634,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17695,7 +17696,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17757,7 +17758,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17819,7 +17820,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17876,7 +17877,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17938,7 +17939,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18000,7 +18001,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18062,7 +18063,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18124,7 +18125,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18186,7 +18187,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18248,7 +18249,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18310,7 +18311,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18372,7 +18373,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18434,7 +18435,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18496,7 +18497,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18558,7 +18559,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18620,7 +18621,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18677,7 +18678,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18734,7 +18735,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18796,7 +18797,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18858,7 +18859,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18920,7 +18921,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18977,7 +18978,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19039,7 +19040,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19101,7 +19102,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19163,7 +19164,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19225,7 +19226,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19287,7 +19288,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19349,7 +19350,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19411,7 +19412,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19473,7 +19474,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19535,7 +19536,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19592,7 +19593,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19649,7 +19650,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19706,7 +19707,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19768,7 +19769,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19830,7 +19831,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19887,7 +19888,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19944,7 +19945,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20006,7 +20007,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20063,7 +20064,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20120,7 +20121,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20182,7 +20183,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20244,7 +20245,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20306,7 +20307,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20363,7 +20364,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20420,7 +20421,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20482,7 +20483,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20544,7 +20545,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20606,7 +20607,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20668,7 +20669,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20730,7 +20731,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20792,7 +20793,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20854,7 +20855,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20916,7 +20917,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20978,7 +20979,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21040,7 +21041,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21097,7 +21098,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21154,7 +21155,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21211,7 +21212,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21273,7 +21274,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21330,7 +21331,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21392,7 +21393,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21454,7 +21455,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21516,7 +21517,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21578,7 +21579,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21640,7 +21641,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21702,7 +21703,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21764,7 +21765,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21826,7 +21827,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21888,7 +21889,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21950,7 +21951,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22012,7 +22013,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22074,7 +22075,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22136,7 +22137,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22198,7 +22199,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22260,7 +22261,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22322,7 +22323,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22384,7 +22385,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22441,7 +22442,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22498,7 +22499,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22560,7 +22561,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22622,7 +22623,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22679,7 +22680,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22741,7 +22742,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22803,7 +22804,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22860,7 +22861,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22922,7 +22923,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22984,7 +22985,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23046,7 +23047,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23108,7 +23109,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23170,7 +23171,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23232,7 +23233,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23294,7 +23295,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23356,7 +23357,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23418,7 +23419,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23480,7 +23481,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23542,7 +23543,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23599,7 +23600,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23661,7 +23662,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23718,7 +23719,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23780,7 +23781,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23837,7 +23838,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23894,7 +23895,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23956,7 +23957,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24018,7 +24019,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24080,7 +24081,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24137,7 +24138,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24199,7 +24200,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24261,7 +24262,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24318,7 +24319,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24380,7 +24381,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24442,7 +24443,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24504,7 +24505,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24561,7 +24562,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24623,7 +24624,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24685,7 +24686,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24747,7 +24748,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24809,7 +24810,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24866,7 +24867,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24928,7 +24929,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24985,7 +24986,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25042,7 +25043,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25099,7 +25100,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25156,7 +25157,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25218,7 +25219,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25280,7 +25281,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25342,7 +25343,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25399,7 +25400,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25461,7 +25462,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25523,7 +25524,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25585,7 +25586,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25647,7 +25648,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25709,7 +25710,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25771,7 +25772,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25833,7 +25834,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25895,7 +25896,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25957,7 +25958,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26019,7 +26020,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26081,7 +26082,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26143,7 +26144,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26200,7 +26201,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26257,7 +26258,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26319,7 +26320,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26381,7 +26382,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26443,7 +26444,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26505,7 +26506,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26567,7 +26568,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26629,7 +26630,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26691,7 +26692,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26753,7 +26754,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26815,7 +26816,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26872,7 +26873,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26929,7 +26930,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26986,7 +26987,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27048,7 +27049,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27110,7 +27111,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27172,7 +27173,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27234,7 +27235,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27296,7 +27297,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27358,7 +27359,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27420,7 +27421,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27482,7 +27483,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27544,7 +27545,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>45073</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44109</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44173</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43669</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44033</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44722</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44491</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>44545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>44820</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44865</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>44958</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45073</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43327</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43328</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43329</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43332</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43335</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43348</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43404</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43405</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43425</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43452</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43453</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43454</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43467</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43514</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43516</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43523</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43531</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43558</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43602</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>43606</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43633</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43642</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43644</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43649</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43650</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43651</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43654</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43657</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43673</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>43677</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43683</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43684</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43689</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>43696</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43703</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43714</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43721</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>43735</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43738</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43752</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43760</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43762</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43788</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43791</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43792</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43793</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>43817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43819</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43935</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43936</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43966</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>43976</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43980</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>43987</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>43991</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44005</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44022</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>44029</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>44060</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44061</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44062</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44067</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44088</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44090</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44092</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44095</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>44096</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>44098</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44133</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>44138</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44140</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44151</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44158</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44159</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>44162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>44172</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44238</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44244</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44245</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44246</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44344</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44355</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>44358</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>44362</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>44369</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44370</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>44375</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>44378</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>44382</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44391</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44393</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44404</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44417</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44425</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44431</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44433</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>44437</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44442</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44454</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>44462</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>44477</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>44490</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20979,7 +20979,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22623,7 +22623,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24081,7 +24081,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26444,7 +26444,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26692,7 +26692,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26930,7 +26930,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27545,7 +27545,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>45073</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44109</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44173</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43669</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44033</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44722</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44491</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>44545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>44820</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44865</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>44958</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45073</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43327</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43328</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43329</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43332</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43335</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43348</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43404</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43405</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43425</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43452</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43453</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43454</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43467</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43514</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43516</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43523</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43531</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43558</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43602</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>43606</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43633</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43642</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43644</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43649</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43650</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43651</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43654</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43657</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43673</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>43677</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43683</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43684</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43689</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>43696</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43703</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43714</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43721</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>43735</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43738</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43752</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43760</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43762</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43788</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43791</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43792</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43793</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>43817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43819</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43935</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43936</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43966</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>43976</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43980</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>43987</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>43991</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44005</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44022</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>44029</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>44060</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44061</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44062</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44067</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44088</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44090</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44092</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44095</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>44096</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>44098</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44133</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>44138</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44140</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44151</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44158</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44159</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>44162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>44172</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44238</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44244</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44245</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44246</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44344</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44355</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>44358</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>44362</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>44369</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44370</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>44375</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>44378</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>44382</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44391</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44393</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44404</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44417</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44425</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44431</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44433</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>44437</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44442</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44454</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>44462</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>44477</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>44490</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20979,7 +20979,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22623,7 +22623,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24081,7 +24081,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26444,7 +26444,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26692,7 +26692,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26930,7 +26930,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27545,7 +27545,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>45073</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44109</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44173</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43669</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44033</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44722</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44491</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>44545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>44820</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44865</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>44958</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45073</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43327</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43328</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43329</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43332</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43335</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43348</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43404</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43405</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43425</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43452</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43453</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43454</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43467</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43514</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43516</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43523</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43531</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43558</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43602</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>43606</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43633</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43642</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43644</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43649</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43650</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43651</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43654</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43657</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43673</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>43677</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43683</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43684</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43689</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>43696</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43703</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43714</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43721</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>43735</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43738</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43752</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43760</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43762</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43788</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43791</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43792</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43793</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>43817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43819</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43935</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43936</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43966</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>43976</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43980</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>43987</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>43991</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44005</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44022</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>44029</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>44060</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44061</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44062</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44067</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44088</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44090</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44092</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44095</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>44096</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>44098</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44133</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>44138</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44140</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44151</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44158</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44159</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>44162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>44172</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44238</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44244</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44245</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44246</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44344</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44355</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>44358</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>44362</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>44369</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44370</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>44375</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>44378</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>44382</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44391</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44393</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44404</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44417</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44425</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44431</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44433</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>44437</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44442</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44454</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>44462</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>44477</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>44490</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20979,7 +20979,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22623,7 +22623,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24081,7 +24081,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26444,7 +26444,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26692,7 +26692,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26930,7 +26930,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27545,7 +27545,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>

--- a/Översikt JOKKMOKK.xlsx
+++ b/Översikt JOKKMOKK.xlsx
@@ -572,7 +572,7 @@
         <v>44131</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44375</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         <v>43775</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
         <v>44917</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         <v>44173</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
         <v>44097</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>43795</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>43566</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         <v>45057</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45057</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1985,7 +1985,7 @@
         <v>44722</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>44173</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2188,7 +2188,7 @@
         <v>43566</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         <v>43997</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>44783</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2483,7 +2483,7 @@
         <v>44144</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44225</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>44552</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
         <v>45057</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2869,7 +2869,7 @@
         <v>44076</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>45073</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3063,7 +3063,7 @@
         <v>44109</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44173</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43416</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>43669</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3445,7 +3445,7 @@
         <v>44033</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44722</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>43817</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         <v>44490</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>44762</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3912,7 +3912,7 @@
         <v>44474</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>43602</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>43976</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44545</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>44783</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>45073</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>45073</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45078</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>43509</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>43516</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         <v>44726</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>45094</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>44109</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>44391</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>44491</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>44545</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
         <v>44820</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5443,7 +5443,7 @@
         <v>44865</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5533,7 +5533,7 @@
         <v>44958</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>45073</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         <v>43327</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>43328</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>43328</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43328</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>43329</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>43332</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43332</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         <v>43335</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6174,7 +6174,7 @@
         <v>43348</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>43360</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6355,7 +6355,7 @@
         <v>43404</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>43404</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6479,7 +6479,7 @@
         <v>43405</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6536,7 +6536,7 @@
         <v>43423</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>43424</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6660,7 +6660,7 @@
         <v>43425</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43425</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43425</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6841,7 +6841,7 @@
         <v>43425</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6898,7 +6898,7 @@
         <v>43425</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43433</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7017,7 +7017,7 @@
         <v>43452</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43453</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7136,7 +7136,7 @@
         <v>43454</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         <v>43467</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>43467</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7317,7 +7317,7 @@
         <v>43467</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>43475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>43493</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>43493</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         <v>43493</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         <v>43514</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         <v>43515</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         <v>43516</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         <v>43517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         <v>43517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7902,7 +7902,7 @@
         <v>43523</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>43523</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43531</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43558</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43602</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43606</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         <v>43606</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>43608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8383,7 +8383,7 @@
         <v>43614</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8445,7 +8445,7 @@
         <v>43626</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         <v>43626</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         <v>43633</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
         <v>43633</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8683,7 +8683,7 @@
         <v>43642</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8740,7 +8740,7 @@
         <v>43642</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>43644</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43649</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43649</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8973,7 +8973,7 @@
         <v>43650</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9035,7 +9035,7 @@
         <v>43651</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43651</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43651</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9221,7 +9221,7 @@
         <v>43654</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9283,7 +9283,7 @@
         <v>43657</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43657</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>43657</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43673</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43677</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9588,7 +9588,7 @@
         <v>43677</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9650,7 +9650,7 @@
         <v>43677</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9712,7 +9712,7 @@
         <v>43683</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>43683</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9836,7 +9836,7 @@
         <v>43684</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9898,7 +9898,7 @@
         <v>43689</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>43690</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>43696</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>43703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>43703</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10260,7 +10260,7 @@
         <v>43704</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10322,7 +10322,7 @@
         <v>43704</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>43710</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>43714</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         <v>43721</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10570,7 +10570,7 @@
         <v>43734</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10627,7 +10627,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10684,7 +10684,7 @@
         <v>43734</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         <v>43734</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10798,7 +10798,7 @@
         <v>43734</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10855,7 +10855,7 @@
         <v>43734</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10912,7 +10912,7 @@
         <v>43735</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
         <v>43738</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         <v>43752</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>43760</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>43762</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43787</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11274,7 +11274,7 @@
         <v>43787</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11331,7 +11331,7 @@
         <v>43787</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11388,7 +11388,7 @@
         <v>43788</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
         <v>43788</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11502,7 +11502,7 @@
         <v>43788</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11559,7 +11559,7 @@
         <v>43790</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11621,7 +11621,7 @@
         <v>43791</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11683,7 +11683,7 @@
         <v>43792</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11740,7 +11740,7 @@
         <v>43793</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11797,7 +11797,7 @@
         <v>43811</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11854,7 +11854,7 @@
         <v>43815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11911,7 +11911,7 @@
         <v>43817</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
         <v>43817</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>43817</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12097,7 +12097,7 @@
         <v>43819</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>43852</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>43935</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12273,7 +12273,7 @@
         <v>43936</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>43966</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
         <v>43971</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12459,7 +12459,7 @@
         <v>43976</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>43980</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>43980</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12645,7 +12645,7 @@
         <v>43987</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12707,7 +12707,7 @@
         <v>43991</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12769,7 +12769,7 @@
         <v>44005</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12831,7 +12831,7 @@
         <v>44011</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12893,7 +12893,7 @@
         <v>44022</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12955,7 +12955,7 @@
         <v>44029</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13012,7 +13012,7 @@
         <v>44060</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>44061</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13136,7 +13136,7 @@
         <v>44061</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>44062</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44067</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>44088</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>44090</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44092</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>44095</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         <v>44096</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13632,7 +13632,7 @@
         <v>44098</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13694,7 +13694,7 @@
         <v>44102</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13751,7 +13751,7 @@
         <v>44113</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13813,7 +13813,7 @@
         <v>44113</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13875,7 +13875,7 @@
         <v>44116</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         <v>44126</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>44133</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>44138</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         <v>44140</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44144</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44147</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14309,7 +14309,7 @@
         <v>44151</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14371,7 +14371,7 @@
         <v>44158</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44159</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44161</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14557,7 +14557,7 @@
         <v>44161</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14619,7 +14619,7 @@
         <v>44162</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14681,7 +14681,7 @@
         <v>44172</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14738,7 +14738,7 @@
         <v>44172</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44173</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
         <v>44186</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14919,7 +14919,7 @@
         <v>44186</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14981,7 +14981,7 @@
         <v>44238</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>44244</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>44244</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15167,7 +15167,7 @@
         <v>44244</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15229,7 +15229,7 @@
         <v>44244</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>44244</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15353,7 +15353,7 @@
         <v>44245</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15415,7 +15415,7 @@
         <v>44246</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15477,7 +15477,7 @@
         <v>44246</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15539,7 +15539,7 @@
         <v>44246</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44344</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44344</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15725,7 +15725,7 @@
         <v>44355</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>44358</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>44362</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>44369</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44370</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>44375</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>44378</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>44378</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16201,7 +16201,7 @@
         <v>44382</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16263,7 +16263,7 @@
         <v>44391</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>44393</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         <v>44404</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16449,7 +16449,7 @@
         <v>44417</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>44425</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44431</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16687,7 +16687,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44433</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>44433</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44433</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>44437</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>44442</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>44454</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17101,7 +17101,7 @@
         <v>44454</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17163,7 +17163,7 @@
         <v>44462</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>44474</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17287,7 +17287,7 @@
         <v>44477</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17344,7 +17344,7 @@
         <v>44477</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17401,7 +17401,7 @@
         <v>44477</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17458,7 +17458,7 @@
         <v>44477</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>44477</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>44490</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44493</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>44529</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44531</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>44532</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         <v>44539</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         <v>44539</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18001,7 +18001,7 @@
         <v>44539</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18063,7 +18063,7 @@
         <v>44539</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18125,7 +18125,7 @@
         <v>44539</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18187,7 +18187,7 @@
         <v>44540</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>44543</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>44543</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18373,7 +18373,7 @@
         <v>44543</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18435,7 +18435,7 @@
         <v>44543</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18497,7 +18497,7 @@
         <v>44543</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44543</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44543</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18678,7 +18678,7 @@
         <v>44543</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>44543</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>44543</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>44544</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>44550</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>44573</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>44573</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>44573</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>44574</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19226,7 +19226,7 @@
         <v>44586</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>44586</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19350,7 +19350,7 @@
         <v>44586</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19412,7 +19412,7 @@
         <v>44586</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>44586</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>44586</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44589</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>44589</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>44638</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
         <v>44663</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>44663</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19888,7 +19888,7 @@
         <v>44676</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19945,7 +19945,7 @@
         <v>44685</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>44701</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44705</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>44733</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>44743</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20245,7 +20245,7 @@
         <v>44743</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20307,7 +20307,7 @@
         <v>44746</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>44746</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20421,7 +20421,7 @@
         <v>44747</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20483,7 +20483,7 @@
         <v>44747</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20545,7 +20545,7 @@
         <v>44762</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20607,7 +20607,7 @@
         <v>44762</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>44762</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>44763</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>44769</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>44775</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20917,7 +20917,7 @@
         <v>44795</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20979,7 +20979,7 @@
         <v>44798</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21041,7 +21041,7 @@
         <v>44802</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21098,7 +21098,7 @@
         <v>44802</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21155,7 +21155,7 @@
         <v>44810</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21212,7 +21212,7 @@
         <v>44815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21274,7 +21274,7 @@
         <v>44819</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21331,7 +21331,7 @@
         <v>44820</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>44820</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>44824</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44824</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21579,7 +21579,7 @@
         <v>44824</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21641,7 +21641,7 @@
         <v>44824</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21703,7 +21703,7 @@
         <v>44827</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21765,7 +21765,7 @@
         <v>44830</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21827,7 +21827,7 @@
         <v>44838</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44839</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>44841</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22013,7 +22013,7 @@
         <v>44841</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44841</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22137,7 +22137,7 @@
         <v>44841</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22199,7 +22199,7 @@
         <v>44841</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22261,7 +22261,7 @@
         <v>44845</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22323,7 +22323,7 @@
         <v>44851</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22385,7 +22385,7 @@
         <v>44851</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22442,7 +22442,7 @@
         <v>44851</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22499,7 +22499,7 @@
         <v>44853</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22561,7 +22561,7 @@
         <v>44854</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22623,7 +22623,7 @@
         <v>44862</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44866</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22742,7 +22742,7 @@
         <v>44868</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22804,7 +22804,7 @@
         <v>44868</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22861,7 +22861,7 @@
         <v>44868</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22923,7 +22923,7 @@
         <v>44873</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22985,7 +22985,7 @@
         <v>44873</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23047,7 +23047,7 @@
         <v>44874</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23109,7 +23109,7 @@
         <v>44889</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23171,7 +23171,7 @@
         <v>44893</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23233,7 +23233,7 @@
         <v>44893</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23295,7 +23295,7 @@
         <v>44897</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23357,7 +23357,7 @@
         <v>44916</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23419,7 +23419,7 @@
         <v>44918</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>44930</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23543,7 +23543,7 @@
         <v>44965</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23600,7 +23600,7 @@
         <v>44966</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23662,7 +23662,7 @@
         <v>44966</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23719,7 +23719,7 @@
         <v>44966</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44977</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
         <v>44977</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>44980</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>44980</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24019,7 +24019,7 @@
         <v>44980</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24081,7 +24081,7 @@
         <v>44981</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
         <v>44984</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24200,7 +24200,7 @@
         <v>44984</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>44984</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>44984</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24381,7 +24381,7 @@
         <v>44984</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24443,7 +24443,7 @@
         <v>44984</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44984</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44984</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24624,7 +24624,7 @@
         <v>44984</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>44984</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24748,7 +24748,7 @@
         <v>44984</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>44999</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24867,7 +24867,7 @@
         <v>45022</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24929,7 +24929,7 @@
         <v>45028</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24986,7 +24986,7 @@
         <v>45028</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25043,7 +25043,7 @@
         <v>45028</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25100,7 +25100,7 @@
         <v>45040</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25157,7 +25157,7 @@
         <v>45043</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25219,7 +25219,7 @@
         <v>45050</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>45057</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25343,7 +25343,7 @@
         <v>45057</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25400,7 +25400,7 @@
         <v>45057</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>45067</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25524,7 +25524,7 @@
         <v>45071</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25586,7 +25586,7 @@
         <v>45073</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25648,7 +25648,7 @@
         <v>45073</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25710,7 +25710,7 @@
         <v>45078</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25772,7 +25772,7 @@
         <v>45078</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>45078</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25896,7 +25896,7 @@
         <v>45078</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25958,7 +25958,7 @@
         <v>45079</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26020,7 +26020,7 @@
         <v>45079</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>45083</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26144,7 +26144,7 @@
         <v>45086</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26201,7 +26201,7 @@
         <v>45090</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26258,7 +26258,7 @@
         <v>45093</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>45094</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26382,7 +26382,7 @@
         <v>45094</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26444,7 +26444,7 @@
         <v>45094</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         <v>45094</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26568,7 +26568,7 @@
         <v>45094</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45096</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26692,7 +26692,7 @@
         <v>45099</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26754,7 +26754,7 @@
         <v>45099</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26816,7 +26816,7 @@
         <v>45110</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26873,7 +26873,7 @@
         <v>45110</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26930,7 +26930,7 @@
         <v>45111</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26987,7 +26987,7 @@
         <v>45113</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27049,7 +27049,7 @@
         <v>45113</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45113</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>45113</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45114</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27297,7 +27297,7 @@
         <v>45153</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45161</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27421,7 +27421,7 @@
         <v>45162</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27483,7 +27483,7 @@
         <v>45162</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27545,7 +27545,7 @@
         <v>45166</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
